--- a/rhel9-cis-benchmarks_1-0-0.xlsx
+++ b/rhel9-cis-benchmarks_1-0-0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
   <si>
     <t>1 Initial Setup</t>
   </si>
@@ -621,7 +621,7 @@
     <t>3.4.2.4 Ensure host based firewall loopback traffic is configured (Automated)</t>
   </si>
   <si>
-    <t>False positive, script failing on ‘from’ check. Rules are in place to only accept when source and destination are loopback. TODO: Troubleshoot.</t>
+    <t>False positive, script failing on ‘from’ check. Rules are in place to only accept when source and destination are loopback. TODO: Troubleshoot both audit and remediation scripts.</t>
   </si>
   <si>
     <t>3.4.2.5 Ensure firewalld drops unnecessary services and ports (Manual)</t>
@@ -681,6 +681,9 @@
     <t>4.1.2.3 Ensure system is disabled when audit logs are full (Automated)</t>
   </si>
   <si>
+    <t>We disable auditd when /var/log/audit is full as per organization policy, need exception.</t>
+  </si>
+  <si>
     <t>4.1.3 Configure auditd rules</t>
   </si>
   <si>
@@ -900,9 +903,15 @@
     <t>5.1.8 Ensure cron is restricted to authorized users (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/5-1-8_remediate.sh</t>
+  </si>
+  <si>
     <t>5.1.9 Ensure at is restricted to authorized users (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/5-1-9_remediate.sh</t>
+  </si>
+  <si>
     <t>5.2 Configure SSH Server</t>
   </si>
   <si>
@@ -918,9 +927,15 @@
     <t>5.2.4 Ensure SSH access is limited (Automated)</t>
   </si>
   <si>
+    <t>Inserted ‘AllowGroups sshusers’ into /etc/ssh/sshd_config. Created ‘sshusers’ group. User accounts requiring ssh access must be added to this group.</t>
+  </si>
+  <si>
     <t>5.2.5 Ensure SSH LogLevel is appropriate (Automated)</t>
   </si>
   <si>
+    <t>RHEL9 CIS Policy sets to ‘loglevel VERBOSE’</t>
+  </si>
+  <si>
     <t>5.2.6 Ensure SSH PAM is enabled (Automated)</t>
   </si>
   <si>
@@ -951,6 +966,9 @@
     <t>5.2.15 Ensure SSH warning banner is configured (Automated)</t>
   </si>
   <si>
+    <t>Set ‘Banner /etc/issue’ in /etc/ssh/sshd_conf</t>
+  </si>
+  <si>
     <t>5.2.16 Ensure SSH MaxAuthTries is set to 4 or less (Automated)</t>
   </si>
   <si>
@@ -966,6 +984,9 @@
     <t>5.2.20 Ensure SSH Idle Timeout Interval is configured (Automated)</t>
   </si>
   <si>
+    <t>Set ‘ClientAliveInterval 3540’ and ‘ClientAliveCountMax 0’ in /etc/ssh/sshd_config in accordance with organization 60 minute timeout policy.</t>
+  </si>
+  <si>
     <t>5.3 Configure privilege escalation</t>
   </si>
   <si>
@@ -990,12 +1011,18 @@
     <t>5.3.7 Ensure access to the su command is restricted (Automated)</t>
   </si>
   <si>
+    <t>Created ‘suusers’ group. Added ‘group=suusers’ to the ‘auth    required    pam_wheel.so    use_uid’ line in /etc/pam.d/su</t>
+  </si>
+  <si>
     <t>5.4 Configure authselect</t>
   </si>
   <si>
     <t>5.4.1 Ensure custom authselect profile is used (Manual)</t>
   </si>
   <si>
+    <t>Should be noted this may cause problems with RH IdM (IPA).</t>
+  </si>
+  <si>
     <t>5.4.2 Ensure authselect includes with-faillock (Automated)</t>
   </si>
   <si>
@@ -1005,9 +1032,15 @@
     <t>5.5.1 Ensure password creation requirements are configured (Automated)</t>
   </si>
   <si>
+    <t>minlen = 15</t>
+  </si>
+  <si>
     <t>5.5.2 Ensure lockout for failed password attempts is configured (Automated)</t>
   </si>
   <si>
+    <t>The following are set by the RHEL9 CIS Benchmarks security policy: deny = 3, unlock_time = 900. Use ‘faillock --user &lt;USERNAME&gt; —reset’ to unlock users prior to unlock_time.</t>
+  </si>
+  <si>
     <t>5.5.3 Ensure password reuse is limited (Automated)</t>
   </si>
   <si>
@@ -1023,6 +1056,9 @@
     <t>5.6.1.1 Ensure password expiration is 365 days or less (Automated)</t>
   </si>
   <si>
+    <t>Need to change to 90 on CHNO template</t>
+  </si>
+  <si>
     <t>5.6.1.2 Ensure minimum days between password changes is configured (Automated)</t>
   </si>
   <si>
@@ -1101,6 +1137,9 @@
     <t>6.1.15 Audit system file permissions (Manual)</t>
   </si>
   <si>
+    <t>Point in time review. System freshly built only from RH packages will have no Fails.</t>
+  </si>
+  <si>
     <t>6.2 Local User and Group Settings</t>
   </si>
   <si>
@@ -1126,6 +1165,12 @@
   </si>
   <si>
     <t>6.2.8 Ensure root PATH Integrity (Automated)</t>
+  </si>
+  <si>
+    <t>mkdir -p /root/.local/bin &amp;&amp; chmod -R 700 /root/.local</t>
+  </si>
+  <si>
+    <t>~/.local/bin is included in user PATH’s by default, even if path does not exist. This facilitates local Python pip installation of modules. By default the ~/.local/bin path does not exist.</t>
   </si>
   <si>
     <t>6.2.9 Ensure root is the only UID 0 account (Automated)</t>
@@ -1466,7 +1511,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="ff000000"/>
@@ -1640,6 +1685,94 @@
         <patternFill patternType="solid">
           <fgColor indexed="13"/>
           <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="15"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="13"/>
+          <bgColor indexed="17"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3676,10 +3809,10 @@
       <c r="B68" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="C68" t="s" s="13">
+      <c r="C68" s="14"/>
+      <c r="D68" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
@@ -3692,10 +3825,10 @@
       <c r="B69" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="C69" t="s" s="13">
+      <c r="C69" s="14"/>
+      <c r="D69" t="s" s="13">
         <v>85</v>
       </c>
-      <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
@@ -3708,10 +3841,10 @@
       <c r="B70" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="C70" t="s" s="13">
+      <c r="C70" s="14"/>
+      <c r="D70" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
@@ -3724,10 +3857,10 @@
       <c r="B71" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="C71" t="s" s="13">
+      <c r="C71" s="14"/>
+      <c r="D71" t="s" s="13">
         <v>89</v>
       </c>
-      <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
@@ -3754,10 +3887,10 @@
       <c r="B73" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="C73" t="s" s="13">
+      <c r="C73" s="14"/>
+      <c r="D73" t="s" s="13">
         <v>92</v>
       </c>
-      <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
@@ -3982,7 +4115,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C70" r:id="rId1" location="" tooltip="" display="issue.net"/>
+    <hyperlink ref="D70" r:id="rId1" location="" tooltip="" display="issue.net"/>
     <hyperlink ref="A73" r:id="rId2" location="" tooltip="" display="issue.net"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -4004,7 +4137,10 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="72.9375" style="28" customWidth="1"/>
-    <col min="2" max="8" width="16.3516" style="28" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="28" customWidth="1"/>
+    <col min="3" max="3" width="29.4453" style="28" customWidth="1"/>
+    <col min="4" max="4" width="30.3203" style="28" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="28" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4066,7 +4202,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" ht="44.05" customHeight="1">
+    <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="11">
         <v>113</v>
       </c>
@@ -5129,13 +5265,15 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
+    <row r="12" ht="44.05" customHeight="1">
       <c r="A12" t="s" s="11">
         <v>195</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="D12" t="s" s="13">
+        <v>196</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -5143,7 +5281,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="18">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
@@ -5155,7 +5293,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="14"/>
@@ -5167,7 +5305,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="14"/>
@@ -5179,7 +5317,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="14"/>
@@ -5191,7 +5329,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="14"/>
@@ -5203,7 +5341,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="14"/>
@@ -5215,7 +5353,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="14"/>
@@ -5227,7 +5365,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="14"/>
@@ -5239,7 +5377,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="14"/>
@@ -5251,7 +5389,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="14"/>
@@ -5263,7 +5401,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="14"/>
@@ -5275,7 +5413,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="14"/>
@@ -5287,7 +5425,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
@@ -5299,7 +5437,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="14"/>
@@ -5311,7 +5449,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="14"/>
@@ -5323,7 +5461,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="14"/>
@@ -5335,7 +5473,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="14"/>
@@ -5347,7 +5485,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="14"/>
@@ -5359,7 +5497,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="14"/>
@@ -5371,7 +5509,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="14"/>
@@ -5383,7 +5521,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="14"/>
@@ -5395,7 +5533,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="14"/>
@@ -5407,7 +5545,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="18">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
@@ -5419,14 +5557,14 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s" s="12">
         <v>15</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" t="s" s="13">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -5435,7 +5573,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s" s="12">
         <v>15</v>
@@ -5449,7 +5587,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s" s="12">
         <v>15</v>
@@ -5463,14 +5601,14 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s" s="12">
         <v>15</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" t="s" s="13">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -5479,13 +5617,13 @@
     </row>
     <row r="40" ht="32.05" customHeight="1">
       <c r="A40" t="s" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s" s="12">
         <v>9</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -5495,7 +5633,7 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s" s="12">
         <v>15</v>
@@ -5509,7 +5647,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B42" t="s" s="12">
         <v>15</v>
@@ -5523,7 +5661,7 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="12">
         <v>15</v>
@@ -5537,7 +5675,7 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s" s="12">
         <v>15</v>
@@ -5551,7 +5689,7 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s" s="12">
         <v>15</v>
@@ -5565,7 +5703,7 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="23">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
@@ -5577,7 +5715,7 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="18">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
@@ -5589,7 +5727,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s" s="12">
         <v>15</v>
@@ -5603,7 +5741,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s" s="12">
         <v>15</v>
@@ -5617,7 +5755,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s" s="12">
         <v>15</v>
@@ -5631,13 +5769,13 @@
     </row>
     <row r="51" ht="32.05" customHeight="1">
       <c r="A51" t="s" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s" s="12">
         <v>9</v>
       </c>
       <c r="C51" t="s" s="13">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -5647,7 +5785,7 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s" s="12">
         <v>15</v>
@@ -5661,15 +5799,15 @@
     </row>
     <row r="53" ht="32.05" customHeight="1">
       <c r="A53" t="s" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B53" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="C53" t="s" s="13">
-        <v>241</v>
-      </c>
-      <c r="D53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" t="s" s="13">
+        <v>242</v>
+      </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
@@ -5677,7 +5815,7 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s" s="12">
         <v>15</v>
@@ -5691,7 +5829,7 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="18">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -5703,7 +5841,7 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="18">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
@@ -5715,10 +5853,10 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s" s="12">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -5729,10 +5867,10 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="11">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s" s="12">
         <v>247</v>
-      </c>
-      <c r="B58" t="s" s="12">
-        <v>246</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -5743,10 +5881,10 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s" s="12">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -5757,7 +5895,7 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B60" t="s" s="12">
         <v>15</v>
@@ -5771,7 +5909,7 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s" s="12">
         <v>15</v>
@@ -5785,7 +5923,7 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s" s="12">
         <v>15</v>
@@ -5799,7 +5937,7 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s" s="12">
         <v>15</v>
@@ -5813,10 +5951,10 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s" s="12">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -5827,7 +5965,7 @@
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s" s="12">
         <v>15</v>
@@ -5841,13 +5979,13 @@
     </row>
     <row r="66" ht="32.05" customHeight="1">
       <c r="A66" t="s" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s" s="12">
         <v>9</v>
       </c>
       <c r="C66" t="s" s="13">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -5857,7 +5995,7 @@
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="18">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="20"/>
@@ -5869,7 +6007,7 @@
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="23">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -5916,13 +6054,16 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="72.9375" style="32" customWidth="1"/>
-    <col min="2" max="8" width="16.3516" style="32" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="32" customWidth="1"/>
+    <col min="3" max="3" width="29.9531" style="32" customWidth="1"/>
+    <col min="4" max="4" width="28.8438" style="32" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="32" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5954,7 +6095,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5966,9 +6107,11 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="11">
-        <v>261</v>
-      </c>
-      <c r="B4" s="31"/>
+        <v>262</v>
+      </c>
+      <c r="B4" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -5978,9 +6121,11 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>262</v>
-      </c>
-      <c r="B5" s="31"/>
+        <v>263</v>
+      </c>
+      <c r="B5" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -5990,9 +6135,11 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>263</v>
-      </c>
-      <c r="B6" s="31"/>
+        <v>264</v>
+      </c>
+      <c r="B6" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -6002,9 +6149,11 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>264</v>
-      </c>
-      <c r="B7" s="31"/>
+        <v>265</v>
+      </c>
+      <c r="B7" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -6014,9 +6163,11 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>265</v>
-      </c>
-      <c r="B8" s="31"/>
+        <v>266</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -6026,9 +6177,11 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>266</v>
-      </c>
-      <c r="B9" s="31"/>
+        <v>267</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -6038,9 +6191,11 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>267</v>
-      </c>
-      <c r="B10" s="31"/>
+        <v>268</v>
+      </c>
+      <c r="B10" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -6048,24 +6203,32 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
+    <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>268</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="14"/>
+        <v>269</v>
+      </c>
+      <c r="B11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="13">
+        <v>270</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
+    <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>269</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="14"/>
+        <v>271</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s" s="13">
+        <v>272</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -6074,7 +6237,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="23">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -6086,9 +6249,11 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>271</v>
-      </c>
-      <c r="B14" s="31"/>
+        <v>274</v>
+      </c>
+      <c r="B14" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -6098,9 +6263,11 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>272</v>
-      </c>
-      <c r="B15" s="31"/>
+        <v>275</v>
+      </c>
+      <c r="B15" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -6110,9 +6277,11 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>273</v>
-      </c>
-      <c r="B16" s="31"/>
+        <v>276</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -6120,25 +6289,33 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
+    <row r="17" ht="68.05" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>274</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="14"/>
+        <v>277</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s" s="13">
+        <v>278</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
+    <row r="18" ht="32.05" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>275</v>
-      </c>
-      <c r="B18" s="31"/>
+        <v>279</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="D18" t="s" s="13">
+        <v>280</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -6146,9 +6323,11 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>276</v>
-      </c>
-      <c r="B19" s="31"/>
+        <v>281</v>
+      </c>
+      <c r="B19" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -6158,9 +6337,11 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>277</v>
-      </c>
-      <c r="B20" s="31"/>
+        <v>282</v>
+      </c>
+      <c r="B20" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -6170,9 +6351,11 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>278</v>
-      </c>
-      <c r="B21" s="31"/>
+        <v>283</v>
+      </c>
+      <c r="B21" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -6182,9 +6365,11 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>279</v>
-      </c>
-      <c r="B22" s="31"/>
+        <v>284</v>
+      </c>
+      <c r="B22" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -6194,9 +6379,11 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>280</v>
-      </c>
-      <c r="B23" s="31"/>
+        <v>285</v>
+      </c>
+      <c r="B23" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -6206,9 +6393,11 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>281</v>
-      </c>
-      <c r="B24" s="31"/>
+        <v>286</v>
+      </c>
+      <c r="B24" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -6218,9 +6407,11 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>282</v>
-      </c>
-      <c r="B25" s="31"/>
+        <v>287</v>
+      </c>
+      <c r="B25" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -6230,9 +6421,11 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>283</v>
-      </c>
-      <c r="B26" s="31"/>
+        <v>288</v>
+      </c>
+      <c r="B26" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -6242,9 +6435,11 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>284</v>
-      </c>
-      <c r="B27" s="31"/>
+        <v>289</v>
+      </c>
+      <c r="B27" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -6252,13 +6447,17 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
+    <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>285</v>
-      </c>
-      <c r="B28" s="31"/>
+        <v>290</v>
+      </c>
+      <c r="B28" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="D28" t="s" s="13">
+        <v>291</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -6266,9 +6465,11 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>286</v>
-      </c>
-      <c r="B29" s="31"/>
+        <v>292</v>
+      </c>
+      <c r="B29" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -6278,9 +6479,11 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="11">
-        <v>287</v>
-      </c>
-      <c r="B30" s="31"/>
+        <v>293</v>
+      </c>
+      <c r="B30" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -6290,9 +6493,11 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="11">
-        <v>288</v>
-      </c>
-      <c r="B31" s="31"/>
+        <v>294</v>
+      </c>
+      <c r="B31" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -6302,9 +6507,11 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="11">
-        <v>289</v>
-      </c>
-      <c r="B32" s="31"/>
+        <v>295</v>
+      </c>
+      <c r="B32" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -6312,13 +6519,17 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
+    <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="11">
-        <v>290</v>
-      </c>
-      <c r="B33" s="31"/>
+        <v>296</v>
+      </c>
+      <c r="B33" t="s" s="12">
+        <v>82</v>
+      </c>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="D33" t="s" s="13">
+        <v>297</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -6326,7 +6537,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="23">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -6338,9 +6549,11 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="11">
-        <v>292</v>
-      </c>
-      <c r="B35" s="31"/>
+        <v>299</v>
+      </c>
+      <c r="B35" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -6350,9 +6563,11 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="11">
-        <v>293</v>
-      </c>
-      <c r="B36" s="31"/>
+        <v>300</v>
+      </c>
+      <c r="B36" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -6362,9 +6577,11 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="B37" s="31"/>
+        <v>301</v>
+      </c>
+      <c r="B37" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -6374,9 +6591,11 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="11">
-        <v>295</v>
-      </c>
-      <c r="B38" s="31"/>
+        <v>302</v>
+      </c>
+      <c r="B38" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -6386,9 +6605,11 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="11">
-        <v>296</v>
-      </c>
-      <c r="B39" s="31"/>
+        <v>303</v>
+      </c>
+      <c r="B39" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -6398,9 +6619,11 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="11">
-        <v>297</v>
-      </c>
-      <c r="B40" s="31"/>
+        <v>304</v>
+      </c>
+      <c r="B40" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -6408,12 +6631,16 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" ht="20.05" customHeight="1">
+    <row r="41" ht="56.05" customHeight="1">
       <c r="A41" t="s" s="11">
-        <v>298</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="14"/>
+        <v>305</v>
+      </c>
+      <c r="B41" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s" s="13">
+        <v>306</v>
+      </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -6422,7 +6649,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="23">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
@@ -6432,13 +6659,17 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
+    <row r="43" ht="32.05" customHeight="1">
       <c r="A43" t="s" s="11">
-        <v>300</v>
-      </c>
-      <c r="B43" s="31"/>
+        <v>308</v>
+      </c>
+      <c r="B43" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="D43" t="s" s="13">
+        <v>309</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -6446,9 +6677,11 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="11">
-        <v>301</v>
-      </c>
-      <c r="B44" s="31"/>
+        <v>310</v>
+      </c>
+      <c r="B44" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -6458,7 +6691,7 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="23">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -6470,23 +6703,31 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="11">
-        <v>303</v>
-      </c>
-      <c r="B46" s="31"/>
+        <v>312</v>
+      </c>
+      <c r="B46" t="s" s="12">
+        <v>82</v>
+      </c>
       <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="D46" t="s" s="13">
+        <v>313</v>
+      </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" ht="20.05" customHeight="1">
+    <row r="47" ht="80.05" customHeight="1">
       <c r="A47" t="s" s="11">
-        <v>304</v>
-      </c>
-      <c r="B47" s="31"/>
+        <v>314</v>
+      </c>
+      <c r="B47" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="D47" t="s" s="13">
+        <v>315</v>
+      </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -6494,7 +6735,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="11">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="14"/>
@@ -6506,9 +6747,11 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="11">
-        <v>306</v>
-      </c>
-      <c r="B49" s="31"/>
+        <v>317</v>
+      </c>
+      <c r="B49" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -6518,7 +6761,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="23">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
@@ -6530,7 +6773,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="18">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
@@ -6540,13 +6783,17 @@
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" ht="20.05" customHeight="1">
+    <row r="52" ht="32.05" customHeight="1">
       <c r="A52" t="s" s="11">
-        <v>309</v>
-      </c>
-      <c r="B52" s="31"/>
+        <v>320</v>
+      </c>
+      <c r="B52" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="D52" t="s" s="13">
+        <v>321</v>
+      </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -6554,9 +6801,11 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="11">
-        <v>310</v>
-      </c>
-      <c r="B53" s="31"/>
+        <v>322</v>
+      </c>
+      <c r="B53" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -6566,9 +6815,11 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="11">
-        <v>311</v>
-      </c>
-      <c r="B54" s="31"/>
+        <v>323</v>
+      </c>
+      <c r="B54" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -6578,7 +6829,7 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="11">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B55" s="31"/>
       <c r="C55" s="14"/>
@@ -6590,7 +6841,7 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="11">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B56" s="31"/>
       <c r="C56" s="14"/>
@@ -6602,7 +6853,7 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="11">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B57" s="31"/>
       <c r="C57" s="14"/>
@@ -6614,7 +6865,7 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="11">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B58" s="31"/>
       <c r="C58" s="14"/>
@@ -6626,7 +6877,7 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="11">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="14"/>
@@ -6638,7 +6889,7 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="11">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="14"/>
@@ -6650,7 +6901,7 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="11">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="14"/>
@@ -6664,6 +6915,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:B61">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal" stopIfTrue="1">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal" stopIfTrue="1">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal" stopIfTrue="1">
+      <formula>"Alternate"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal" stopIfTrue="1">
+      <formula>"Remediated"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -6683,13 +6948,16 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="79.7656" style="33" customWidth="1"/>
-    <col min="2" max="8" width="16.3516" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="33" customWidth="1"/>
+    <col min="3" max="3" width="28.8359" style="33" customWidth="1"/>
+    <col min="4" max="4" width="30.3438" style="33" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="33" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6721,7 +6989,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -6733,9 +7001,11 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="11">
-        <v>321</v>
-      </c>
-      <c r="B4" s="31"/>
+        <v>333</v>
+      </c>
+      <c r="B4" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -6745,9 +7015,11 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="11">
-        <v>322</v>
-      </c>
-      <c r="B5" s="31"/>
+        <v>334</v>
+      </c>
+      <c r="B5" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -6757,9 +7029,11 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>323</v>
-      </c>
-      <c r="B6" s="31"/>
+        <v>335</v>
+      </c>
+      <c r="B6" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -6769,9 +7043,11 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>324</v>
-      </c>
-      <c r="B7" s="31"/>
+        <v>336</v>
+      </c>
+      <c r="B7" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -6781,9 +7057,11 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>325</v>
-      </c>
-      <c r="B8" s="31"/>
+        <v>337</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -6793,9 +7071,11 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>326</v>
-      </c>
-      <c r="B9" s="31"/>
+        <v>338</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -6805,9 +7085,11 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>327</v>
-      </c>
-      <c r="B10" s="31"/>
+        <v>339</v>
+      </c>
+      <c r="B10" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -6817,9 +7099,11 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>328</v>
-      </c>
-      <c r="B11" s="31"/>
+        <v>340</v>
+      </c>
+      <c r="B11" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -6829,9 +7113,11 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>329</v>
-      </c>
-      <c r="B12" s="31"/>
+        <v>341</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -6841,9 +7127,11 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>330</v>
-      </c>
-      <c r="B13" s="31"/>
+        <v>342</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -6853,9 +7141,11 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>331</v>
-      </c>
-      <c r="B14" s="31"/>
+        <v>343</v>
+      </c>
+      <c r="B14" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -6865,9 +7155,11 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>332</v>
-      </c>
-      <c r="B15" s="31"/>
+        <v>344</v>
+      </c>
+      <c r="B15" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -6877,9 +7169,11 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>333</v>
-      </c>
-      <c r="B16" s="31"/>
+        <v>345</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -6889,9 +7183,11 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>334</v>
-      </c>
-      <c r="B17" s="31"/>
+        <v>346</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -6899,13 +7195,17 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
+    <row r="18" ht="44.05" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>335</v>
-      </c>
-      <c r="B18" s="31"/>
+        <v>347</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="D18" t="s" s="13">
+        <v>348</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -6913,7 +7213,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="23">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -6925,9 +7225,11 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>337</v>
-      </c>
-      <c r="B20" s="31"/>
+        <v>350</v>
+      </c>
+      <c r="B20" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -6937,9 +7239,11 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>338</v>
-      </c>
-      <c r="B21" s="31"/>
+        <v>351</v>
+      </c>
+      <c r="B21" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -6949,9 +7253,11 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>339</v>
-      </c>
-      <c r="B22" s="31"/>
+        <v>352</v>
+      </c>
+      <c r="B22" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -6961,9 +7267,11 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="11">
-        <v>340</v>
-      </c>
-      <c r="B23" s="31"/>
+        <v>353</v>
+      </c>
+      <c r="B23" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -6973,9 +7281,11 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="11">
-        <v>341</v>
-      </c>
-      <c r="B24" s="31"/>
+        <v>354</v>
+      </c>
+      <c r="B24" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -6985,9 +7295,11 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="11">
-        <v>342</v>
-      </c>
-      <c r="B25" s="31"/>
+        <v>355</v>
+      </c>
+      <c r="B25" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -6997,9 +7309,11 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="11">
-        <v>343</v>
-      </c>
-      <c r="B26" s="31"/>
+        <v>356</v>
+      </c>
+      <c r="B26" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -7007,13 +7321,19 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
+    <row r="27" ht="68.05" customHeight="1">
       <c r="A27" t="s" s="11">
-        <v>344</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+        <v>357</v>
+      </c>
+      <c r="B27" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="13">
+        <v>358</v>
+      </c>
+      <c r="D27" t="s" s="13">
+        <v>359</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -7021,9 +7341,11 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="11">
-        <v>345</v>
-      </c>
-      <c r="B28" s="31"/>
+        <v>360</v>
+      </c>
+      <c r="B28" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -7033,9 +7355,11 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="11">
-        <v>346</v>
-      </c>
-      <c r="B29" s="31"/>
+        <v>361</v>
+      </c>
+      <c r="B29" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -7045,9 +7369,11 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="11">
-        <v>347</v>
-      </c>
-      <c r="B30" s="31"/>
+        <v>362</v>
+      </c>
+      <c r="B30" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -7057,9 +7383,11 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="11">
-        <v>348</v>
-      </c>
-      <c r="B31" s="31"/>
+        <v>363</v>
+      </c>
+      <c r="B31" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -7069,9 +7397,11 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="11">
-        <v>349</v>
-      </c>
-      <c r="B32" s="31"/>
+        <v>364</v>
+      </c>
+      <c r="B32" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -7081,9 +7411,11 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="11">
-        <v>350</v>
-      </c>
-      <c r="B33" s="31"/>
+        <v>365</v>
+      </c>
+      <c r="B33" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -7093,9 +7425,11 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="11">
-        <v>351</v>
-      </c>
-      <c r="B34" s="31"/>
+        <v>366</v>
+      </c>
+      <c r="B34" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -7105,9 +7439,11 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="11">
-        <v>352</v>
-      </c>
-      <c r="B35" s="31"/>
+        <v>367</v>
+      </c>
+      <c r="B35" t="s" s="12">
+        <v>15</v>
+      </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -7119,6 +7455,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:B35">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal" stopIfTrue="1">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal" stopIfTrue="1">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal" stopIfTrue="1">
+      <formula>"Alternate"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal" stopIfTrue="1">
+      <formula>"Remediated"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/rhel9-cis-benchmarks_1-0-0.xlsx
+++ b/rhel9-cis-benchmarks_1-0-0.xlsx
@@ -5,18 +5,18 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="1 Initial Setup - 1 Initial Set" sheetId="1" r:id="rId4"/>
-    <sheet name="2 Services - 2 Services" sheetId="2" r:id="rId5"/>
-    <sheet name="3 Network Configuration - 3 Net" sheetId="3" r:id="rId6"/>
-    <sheet name="4 Logging and Auditing - 4 Logg" sheetId="4" r:id="rId7"/>
+    <sheet name="1 Initial Setup" sheetId="1" r:id="rId4"/>
+    <sheet name="2 Services" sheetId="2" r:id="rId5"/>
+    <sheet name="3 Network Configuration" sheetId="3" r:id="rId6"/>
+    <sheet name="4 Logging and Auditing" sheetId="4" r:id="rId7"/>
     <sheet name="5 Access, Authentication and Au" sheetId="5" r:id="rId8"/>
-    <sheet name="6 System Maintenance - 6 System" sheetId="6" r:id="rId9"/>
+    <sheet name="6 System Maintenance" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
   <si>
     <t>1 Initial Setup</t>
   </si>
@@ -681,27 +681,52 @@
     <t>4.1.2.3 Ensure system is disabled when audit logs are full (Automated)</t>
   </si>
   <si>
-    <t>We disable auditd when /var/log/audit is full as per organization policy, need exception.</t>
+    <t>space_left_action = syslog
+admin_space_left_action = suspend</t>
+  </si>
+  <si>
+    <t>We send space left warning to syslog and suspend auditd when /var/log/audit is full as per organization policy, need exception.</t>
   </si>
   <si>
     <t>4.1.3 Configure auditd rules</t>
   </si>
   <si>
+    <t>Execute 'augenrules --load' and reboot to load rule changes in the following section into memory.</t>
+  </si>
+  <si>
     <t>4.1.3.1 Ensure changes to system administration scope (sudoers) is collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-1_remediate.sh.</t>
+  </si>
+  <si>
+    <t>Changed RH CIS policy remediation to match CIS remediation.</t>
+  </si>
+  <si>
     <t>4.1.3.2 Ensure actions as another user are always logged (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-2_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.3 Ensure events that modify the sudo log file are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-3_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.4 Ensure events that modify date and time information are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-4_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.5 Ensure events that modify the system's network environment are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-5_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.6 Ensure use of privileged commands are collected (Automated)</t>
   </si>
   <si>
@@ -870,6 +895,9 @@
     <t>4.2.3 Ensure all logfiles have appropriate permissions and ownership (Automated)</t>
   </si>
   <si>
+    <t xml:space="preserve">Reviewed logs with 0644 permissions </t>
+  </si>
+  <si>
     <t>4.3 Ensure logrotate is configured (Manual)</t>
   </si>
   <si>
@@ -1044,6 +1072,12 @@
     <t>5.5.3 Ensure password reuse is limited (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/5-5-3_remediate.sh</t>
+  </si>
+  <si>
+    <t>Check ‘grep history /etc/pam.d/system-auth’ first</t>
+  </si>
+  <si>
     <t>5.5.4 Ensure password hashing algorithm is SHA-512 or yescrypt (Automated)</t>
   </si>
   <si>
@@ -1077,10 +1111,18 @@
     <t>5.6.3 Ensure default user shell timeout is 900 seconds or less (Automated)</t>
   </si>
   <si>
+    <t># grep TMOUT /etc/profile.d/*
+/etc/profile.d/tmout.sh:# Set TMOUT to 900 per security requirements
+/etc/profile.d/tmout.sh:declare -xr TMOUT=900</t>
+  </si>
+  <si>
     <t>5.6.4 Ensure default group for the root account is GID 0 (Automated)</t>
   </si>
   <si>
     <t>5.6.5 Ensure default user umask is 027 or more restrictive (Automated)</t>
+  </si>
+  <si>
+    <t>Audits are broken.</t>
   </si>
   <si>
     <t>5.6.6 Ensure root password is set (Automated)</t>
@@ -1204,7 +1246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1216,6 +1258,11 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="24"/>
       <color indexed="8"/>
@@ -1224,7 +1271,7 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -1247,7 +1294,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1256,19 +1303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="19"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1284,8 +1325,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1295,28 +1348,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -1324,14 +1360,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -1346,7 +1391,37 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -1358,7 +1433,22 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -1370,7 +1460,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -1404,32 +1494,29 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1438,55 +1525,64 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1498,7 +1594,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1518,29 +1614,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
           <bgColor indexed="16"/>
         </patternFill>
       </fill>
@@ -1551,7 +1625,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
           <bgColor indexed="17"/>
         </patternFill>
       </fill>
@@ -1562,8 +1636,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="14"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1573,8 +1647,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="15"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="19"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1584,7 +1658,18 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
           <bgColor indexed="17"/>
         </patternFill>
       </fill>
@@ -1595,7 +1680,29 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
+          <bgColor indexed="18"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
           <bgColor indexed="16"/>
         </patternFill>
       </fill>
@@ -1606,29 +1713,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
           <bgColor indexed="17"/>
         </patternFill>
       </fill>
@@ -1639,7 +1724,29 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
+          <bgColor indexed="18"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
           <bgColor indexed="16"/>
         </patternFill>
       </fill>
@@ -1650,29 +1757,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
           <bgColor indexed="17"/>
         </patternFill>
       </fill>
@@ -1683,7 +1768,29 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
+          <bgColor indexed="18"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
           <bgColor indexed="16"/>
         </patternFill>
       </fill>
@@ -1694,8 +1801,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="14"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="17"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1705,8 +1812,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="15"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1716,7 +1823,18 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
           <bgColor indexed="16"/>
         </patternFill>
       </fill>
@@ -1727,7 +1845,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
+          <fgColor indexed="15"/>
           <bgColor indexed="17"/>
         </patternFill>
       </fill>
@@ -1738,8 +1856,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="14"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1749,30 +1867,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="17"/>
+          <fgColor indexed="15"/>
+          <bgColor indexed="19"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1789,15 +1885,17 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff5e5e5e"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="e5afe489"/>
-      <rgbColor rgb="e5ff9781"/>
-      <rgbColor rgb="e5fffc98"/>
-      <rgbColor rgb="e598efea"/>
+      <rgbColor rgb="ffafe489"/>
+      <rgbColor rgb="ffff9781"/>
+      <rgbColor rgb="fffffc98"/>
+      <rgbColor rgb="ff98efea"/>
       <rgbColor rgb="ff919191"/>
       <rgbColor rgb="ffdbdcda"/>
       <rgbColor rgb="ffdbdbdb"/>
@@ -1818,10 +1916,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1998,11 +2096,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2011,7 +2112,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2026,19 +2127,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2286,12 +2387,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2582,7 +2683,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2860,18 +2961,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="80.1172" style="1" customWidth="1"/>
+    <col min="1" max="1" width="80.1719" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.0312" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1562" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1719" style="1" customWidth="1"/>
     <col min="5" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -2880,1221 +2979,1221 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="12">
+      <c r="B6" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C6" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="15">
+      <c r="A7" t="s" s="17">
         <v>13</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="B10" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="B11" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="18">
+      <c r="A12" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="A13" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B13" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="B13" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="A14" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="B14" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="A15" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B15" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="B15" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="18">
+      <c r="A16" t="s" s="20">
         <v>23</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="A17" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B17" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="B17" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="A18" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B18" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="B18" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="A19" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B19" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="B19" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="A20" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B20" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="18">
+      <c r="A21" t="s" s="20">
         <v>28</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="A22" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B22" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="11">
+      <c r="A23" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B23" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="B23" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="11">
+      <c r="A24" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="B24" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="11">
+      <c r="A25" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B25" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="B25" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="18">
+      <c r="A26" t="s" s="20">
         <v>33</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="A27" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B27" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="B27" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="11">
+      <c r="A28" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B28" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="11">
+      <c r="A29" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B29" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="B29" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="11">
+      <c r="A30" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B30" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="18">
+      <c r="A31" t="s" s="20">
         <v>38</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="11">
+      <c r="A32" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B32" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="B32" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="11">
+      <c r="A33" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="B33" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="B33" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="11">
+      <c r="A34" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B34" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="B34" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="18">
+      <c r="A35" t="s" s="20">
         <v>42</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="11">
+      <c r="A36" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="B36" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="B36" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="11">
+      <c r="A37" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="B37" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="B37" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="11">
+      <c r="A38" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="B38" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="B38" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="11">
+      <c r="A39" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="B39" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="B39" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" ht="32.05" customHeight="1">
-      <c r="A40" t="s" s="18">
+      <c r="A40" t="s" s="20">
         <v>47</v>
       </c>
-      <c r="B40" t="s" s="21">
+      <c r="B40" t="s" s="23">
         <v>9</v>
       </c>
-      <c r="C40" t="s" s="22">
+      <c r="C40" t="s" s="24">
         <v>48</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="23">
+      <c r="A41" t="s" s="25">
         <v>49</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="11">
+      <c r="A42" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="B42" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="B42" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="11">
+      <c r="A43" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="B43" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="B43" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="11">
+      <c r="A44" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B44" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="B44" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" ht="44.05" customHeight="1">
-      <c r="A45" t="s" s="11">
+      <c r="A45" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="B45" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" t="s" s="13">
+      <c r="B45" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" t="s" s="15">
         <v>54</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="23">
+      <c r="A46" t="s" s="25">
         <v>55</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="11">
+      <c r="A47" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B47" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="B47" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" ht="32.05" customHeight="1">
-      <c r="A48" t="s" s="11">
+      <c r="A48" t="s" s="13">
         <v>57</v>
       </c>
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C48" t="s" s="13">
+      <c r="C48" t="s" s="15">
         <v>58</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" ht="32.05" customHeight="1">
-      <c r="A49" t="s" s="11">
+      <c r="A49" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C49" t="s" s="13">
+      <c r="C49" t="s" s="15">
         <v>60</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="23">
+      <c r="A50" t="s" s="25">
         <v>61</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" ht="32.05" customHeight="1">
-      <c r="A51" t="s" s="11">
+      <c r="A51" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C51" t="s" s="13">
+      <c r="C51" t="s" s="15">
         <v>63</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" ht="56.05" customHeight="1">
-      <c r="A52" t="s" s="11">
+      <c r="A52" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="B52" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" t="s" s="13">
+      <c r="B52" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" t="s" s="15">
         <v>65</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="23">
+      <c r="A53" t="s" s="25">
         <v>66</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="11">
+      <c r="A54" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="B54" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="B54" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="11">
+      <c r="A55" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="B55" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="B55" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="11">
+      <c r="A56" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="B56" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="B56" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="23">
+      <c r="A57" t="s" s="25">
         <v>70</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="18">
+      <c r="A58" t="s" s="20">
         <v>71</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="11">
+      <c r="A59" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="B59" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="B59" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="11">
+      <c r="A60" t="s" s="13">
         <v>73</v>
       </c>
-      <c r="B60" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="B60" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="11">
+      <c r="A61" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="B61" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="B61" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="11">
+      <c r="A62" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="B62" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
+      <c r="B62" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="11">
+      <c r="A63" t="s" s="13">
         <v>76</v>
       </c>
-      <c r="B63" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+      <c r="B63" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="11">
+      <c r="A64" t="s" s="13">
         <v>77</v>
       </c>
-      <c r="B64" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
+      <c r="B64" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="11">
+      <c r="A65" t="s" s="13">
         <v>78</v>
       </c>
-      <c r="B65" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
+      <c r="B65" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="11">
+      <c r="A66" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="B66" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
+      <c r="B66" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="23">
+      <c r="A67" t="s" s="25">
         <v>80</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" ht="32.05" customHeight="1">
-      <c r="A68" t="s" s="11">
+      <c r="A68" t="s" s="13">
         <v>81</v>
       </c>
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" t="s" s="13">
+      <c r="C68" s="16"/>
+      <c r="D68" t="s" s="15">
         <v>83</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" ht="32.05" customHeight="1">
-      <c r="A69" t="s" s="11">
+      <c r="A69" t="s" s="13">
         <v>84</v>
       </c>
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" t="s" s="13">
+      <c r="C69" s="16"/>
+      <c r="D69" t="s" s="15">
         <v>85</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" ht="44.05" customHeight="1">
-      <c r="A70" t="s" s="11">
+      <c r="A70" t="s" s="13">
         <v>86</v>
       </c>
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" t="s" s="13">
+      <c r="C70" s="16"/>
+      <c r="D70" t="s" s="15">
         <v>87</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="11">
+      <c r="A71" t="s" s="13">
         <v>88</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" t="s" s="13">
+      <c r="C71" s="16"/>
+      <c r="D71" t="s" s="15">
         <v>89</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="11">
+      <c r="A72" t="s" s="13">
         <v>90</v>
       </c>
-      <c r="B72" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
+      <c r="B72" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="11">
+      <c r="A73" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" t="s" s="13">
+      <c r="C73" s="16"/>
+      <c r="D73" t="s" s="15">
         <v>92</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="23">
+      <c r="A74" t="s" s="25">
         <v>93</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="11">
+      <c r="A75" t="s" s="13">
         <v>94</v>
       </c>
-      <c r="B75" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
+      <c r="B75" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" ht="44.05" customHeight="1">
-      <c r="A76" t="s" s="11">
+      <c r="A76" t="s" s="13">
         <v>95</v>
       </c>
-      <c r="B76" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" t="s" s="13">
+      <c r="B76" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" t="s" s="15">
         <v>96</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" ht="44.05" customHeight="1">
-      <c r="A77" t="s" s="11">
+      <c r="A77" t="s" s="13">
         <v>97</v>
       </c>
-      <c r="B77" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" t="s" s="13">
+      <c r="B77" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" t="s" s="15">
         <v>96</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" ht="32.05" customHeight="1">
-      <c r="A78" t="s" s="11">
+      <c r="A78" t="s" s="13">
         <v>98</v>
       </c>
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" t="s" s="13">
+      <c r="C78" s="16"/>
+      <c r="D78" t="s" s="15">
         <v>99</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" ht="32.05" customHeight="1">
-      <c r="A79" t="s" s="11">
+      <c r="A79" t="s" s="13">
         <v>100</v>
       </c>
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" t="s" s="13">
+      <c r="C79" s="16"/>
+      <c r="D79" t="s" s="15">
         <v>99</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" ht="44.05" customHeight="1">
-      <c r="A80" t="s" s="11">
+      <c r="A80" t="s" s="13">
         <v>101</v>
       </c>
-      <c r="B80" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" t="s" s="13">
+      <c r="B80" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" t="s" s="15">
         <v>96</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" ht="32.05" customHeight="1">
-      <c r="A81" t="s" s="11">
+      <c r="A81" t="s" s="13">
         <v>102</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" t="s" s="13">
+      <c r="C81" s="16"/>
+      <c r="D81" t="s" s="15">
         <v>99</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" ht="32.05" customHeight="1">
-      <c r="A82" t="s" s="11">
+      <c r="A82" t="s" s="13">
         <v>103</v>
       </c>
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" t="s" s="13">
+      <c r="C82" s="16"/>
+      <c r="D82" t="s" s="15">
         <v>99</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" ht="32.05" customHeight="1">
-      <c r="A83" t="s" s="11">
+      <c r="A83" t="s" s="13">
         <v>104</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" t="s" s="13">
+      <c r="C83" s="16"/>
+      <c r="D83" t="s" s="15">
         <v>99</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="11">
+      <c r="A84" t="s" s="13">
         <v>105</v>
       </c>
-      <c r="B84" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" t="s" s="13">
+      <c r="B84" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" t="s" s="15">
         <v>106</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" ht="32.05" customHeight="1">
-      <c r="A85" t="s" s="23">
+      <c r="A85" t="s" s="25">
         <v>107</v>
       </c>
-      <c r="B85" t="s" s="26">
-        <v>15</v>
-      </c>
-      <c r="C85" s="25"/>
-      <c r="D85" t="s" s="27">
+      <c r="B85" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="C85" s="27"/>
+      <c r="D85" t="s" s="29">
         <v>108</v>
       </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="23">
+      <c r="A86" t="s" s="25">
         <v>109</v>
       </c>
-      <c r="B86" t="s" s="26">
-        <v>15</v>
-      </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
+      <c r="B86" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4115,8 +4214,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D70" r:id="rId1" location="" tooltip="" display="issue.net"/>
-    <hyperlink ref="A73" r:id="rId2" location="" tooltip="" display="issue.net"/>
+    <hyperlink ref="D70" r:id="rId1" location="" tooltip="" display="Removed existing /etc/issue.net and symlinked to /etc/issue."/>
+    <hyperlink ref="A73" r:id="rId2" location="" tooltip="" display="1.7.6 Ensure permissions on /etc/issue.net are configured (Automated)"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4128,441 +4227,439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="72.9375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="28" customWidth="1"/>
-    <col min="3" max="3" width="29.4453" style="28" customWidth="1"/>
-    <col min="4" max="4" width="30.3203" style="28" customWidth="1"/>
-    <col min="5" max="8" width="16.3516" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="28" customWidth="1"/>
+    <col min="1" max="1" width="73" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
+    <col min="4" max="4" width="30.3516" style="30" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>111</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="13">
         <v>112</v>
       </c>
-      <c r="B4" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="13">
         <v>113</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="15">
         <v>114</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="23">
+      <c r="A6" t="s" s="25">
         <v>115</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="A7" t="s" s="13">
         <v>116</v>
       </c>
-      <c r="B7" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="B7" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="13">
         <v>117</v>
       </c>
-      <c r="B8" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="13">
         <v>118</v>
       </c>
-      <c r="B9" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="13">
         <v>119</v>
       </c>
-      <c r="B10" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="B10" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="13">
         <v>120</v>
       </c>
-      <c r="B11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="B11" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="A12" t="s" s="13">
         <v>121</v>
       </c>
-      <c r="B12" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="B12" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="A13" t="s" s="13">
         <v>122</v>
       </c>
-      <c r="B13" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="B13" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="A14" t="s" s="13">
         <v>123</v>
       </c>
-      <c r="B14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="B14" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="A15" t="s" s="13">
         <v>124</v>
       </c>
-      <c r="B15" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="B15" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
+      <c r="A16" t="s" s="13">
         <v>125</v>
       </c>
-      <c r="B16" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="B16" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="A17" t="s" s="13">
         <v>126</v>
       </c>
-      <c r="B17" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="B17" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="A18" t="s" s="13">
         <v>127</v>
       </c>
-      <c r="B18" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="B18" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="A19" t="s" s="13">
         <v>128</v>
       </c>
-      <c r="B19" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="B19" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="A20" t="s" s="13">
         <v>129</v>
       </c>
-      <c r="B20" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="11">
+      <c r="A21" t="s" s="13">
         <v>130</v>
       </c>
-      <c r="B21" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="B21" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="A22" t="s" s="13">
         <v>131</v>
       </c>
-      <c r="B22" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="11">
+      <c r="A23" t="s" s="13">
         <v>132</v>
       </c>
-      <c r="B23" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="B23" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="11">
+      <c r="A24" t="s" s="13">
         <v>133</v>
       </c>
-      <c r="B24" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="23">
+      <c r="A25" t="s" s="25">
         <v>134</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="11">
+      <c r="A26" t="s" s="13">
         <v>135</v>
       </c>
-      <c r="B26" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="A27" t="s" s="13">
         <v>136</v>
       </c>
-      <c r="B27" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="B27" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="11">
+      <c r="A28" t="s" s="13">
         <v>137</v>
       </c>
-      <c r="B28" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="11">
+      <c r="A29" t="s" s="13">
         <v>138</v>
       </c>
-      <c r="B29" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="B29" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="23">
+      <c r="A30" t="s" s="25">
         <v>139</v>
       </c>
-      <c r="B30" t="s" s="26">
-        <v>15</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="B30" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4592,475 +4689,473 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="62.1172" style="29" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="29" customWidth="1"/>
-    <col min="3" max="3" width="40.7578" style="29" customWidth="1"/>
-    <col min="4" max="4" width="48.1406" style="29" customWidth="1"/>
-    <col min="5" max="8" width="16.3516" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="29" customWidth="1"/>
+    <col min="1" max="1" width="62.1719" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="31" customWidth="1"/>
+    <col min="3" max="3" width="40.8516" style="31" customWidth="1"/>
+    <col min="4" max="4" width="48.1719" style="31" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="31" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>141</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="92.05" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="13">
         <v>142</v>
       </c>
-      <c r="B4" t="s" s="12">
+      <c r="B4" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C4" t="s" s="15">
         <v>143</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="13">
         <v>144</v>
       </c>
-      <c r="B5" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="B5" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="13">
         <v>145</v>
       </c>
-      <c r="B6" t="s" s="12">
+      <c r="B6" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C6" t="s" s="15">
         <v>146</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="23">
+      <c r="A7" t="s" s="25">
         <v>147</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="13">
         <v>148</v>
       </c>
-      <c r="B8" t="s" s="12">
+      <c r="B8" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" t="s" s="13">
+      <c r="C8" s="16"/>
+      <c r="D8" t="s" s="15">
         <v>149</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="13">
         <v>150</v>
       </c>
-      <c r="B9" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="23">
+      <c r="A10" t="s" s="25">
         <v>151</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" ht="56.05" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="13">
         <v>152</v>
       </c>
-      <c r="B11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" t="s" s="13">
+      <c r="B11" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" t="s" s="15">
         <v>153</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="A12" t="s" s="13">
         <v>154</v>
       </c>
-      <c r="B12" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" t="s" s="13">
+      <c r="B12" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" t="s" s="15">
         <v>155</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="A13" t="s" s="13">
         <v>156</v>
       </c>
-      <c r="B13" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="B13" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="A14" t="s" s="13">
         <v>157</v>
       </c>
-      <c r="B14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="B14" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="A15" t="s" s="13">
         <v>158</v>
       </c>
-      <c r="B15" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="B15" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
+      <c r="A16" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="B16" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="B16" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" ht="80.05" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="A17" t="s" s="13">
         <v>160</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C17" t="s" s="13">
+      <c r="C17" t="s" s="15">
         <v>161</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="A18" t="s" s="13">
         <v>162</v>
       </c>
-      <c r="B18" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="B18" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="A19" t="s" s="13">
         <v>163</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" t="s" s="13">
+      <c r="C19" s="16"/>
+      <c r="D19" t="s" s="15">
         <v>155</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="23">
+      <c r="A20" t="s" s="25">
         <v>164</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="18">
+      <c r="A21" t="s" s="20">
         <v>165</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="A22" t="s" s="13">
         <v>166</v>
       </c>
-      <c r="B22" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="80.05" customHeight="1">
-      <c r="A23" t="s" s="11">
+      <c r="A23" t="s" s="13">
         <v>167</v>
       </c>
-      <c r="B23" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" t="s" s="13">
+      <c r="B23" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" t="s" s="15">
         <v>168</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="56.05" customHeight="1">
-      <c r="A24" t="s" s="18">
+      <c r="A24" t="s" s="20">
         <v>169</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" t="s" s="22">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" t="s" s="24">
         <v>170</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="11">
+      <c r="A25" t="s" s="13">
         <v>171</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" t="s" s="13">
+      <c r="C25" s="16"/>
+      <c r="D25" t="s" s="15">
         <v>172</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="11">
+      <c r="A26" t="s" s="13">
         <v>173</v>
       </c>
-      <c r="B26" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="A27" t="s" s="13">
         <v>174</v>
       </c>
-      <c r="B27" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="B27" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="44.05" customHeight="1">
-      <c r="A28" t="s" s="11">
+      <c r="A28" t="s" s="13">
         <v>175</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" t="s" s="13">
+      <c r="C28" s="16"/>
+      <c r="D28" t="s" s="15">
         <v>176</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="68.05" customHeight="1">
-      <c r="A29" t="s" s="11">
+      <c r="A29" t="s" s="13">
         <v>177</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" t="s" s="13">
+      <c r="C29" s="16"/>
+      <c r="D29" t="s" s="15">
         <v>178</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="11">
+      <c r="A30" t="s" s="13">
         <v>179</v>
       </c>
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="14">
         <v>180</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" t="s" s="13">
+      <c r="C30" s="16"/>
+      <c r="D30" t="s" s="15">
         <v>181</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="11">
+      <c r="A31" t="s" s="13">
         <v>182</v>
       </c>
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="14">
         <v>180</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" t="s" s="13">
+      <c r="C31" s="16"/>
+      <c r="D31" t="s" s="15">
         <v>181</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5081,7 +5176,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" location="" tooltip="" display="https://access.redhat.com/solutions/8709"/>
+    <hyperlink ref="C4" r:id="rId1" location="" tooltip="" display="IPv6 disabled as per organization policy. See RHEL9 Documentation &gt; Configuring and managing network &gt; Chapter 31: Using NetworkManager to disable IPv6 for a specific connection. Addtionally see the referenced RH Solution (Option #2) - https://access.redhat.com/solutions/8709 for specific instructions."/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -5093,929 +5188,963 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="89.6172" style="30" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.4219" style="30" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="30" customWidth="1"/>
-    <col min="5" max="8" width="16.3516" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="30" customWidth="1"/>
+    <col min="1" max="1" width="89.6719" style="32" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="32" customWidth="1"/>
+    <col min="3" max="3" width="65.6094" style="32" customWidth="1"/>
+    <col min="4" max="4" width="57.0938" style="32" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>184</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="18">
+      <c r="A4" t="s" s="20">
         <v>185</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="13">
         <v>186</v>
       </c>
-      <c r="B5" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="B5" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="13">
         <v>187</v>
       </c>
-      <c r="B6" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="B6" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="A7" t="s" s="13">
         <v>188</v>
       </c>
-      <c r="B7" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" t="s" s="13">
+      <c r="B7" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" t="s" s="15">
         <v>189</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="13">
         <v>190</v>
       </c>
-      <c r="B8" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="18">
+      <c r="A9" t="s" s="20">
         <v>191</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="13">
         <v>192</v>
       </c>
-      <c r="B10" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" t="s" s="13">
+      <c r="B10" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" t="s" s="15">
         <v>193</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="13">
         <v>194</v>
       </c>
-      <c r="B11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" ht="44.05" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="B11" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="26.7" customHeight="1">
+      <c r="A12" t="s" s="13">
         <v>195</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="14"/>
-      <c r="D12" t="s" s="13">
+      <c r="B12" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s" s="15">
         <v>196</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="18">
+      <c r="D12" t="s" s="15">
         <v>197</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" ht="26.7" customHeight="1">
+      <c r="A13" t="s" s="20">
         <v>198</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" t="s" s="24">
         <v>199</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
+      <c r="A14" t="s" s="13">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
+      <c r="A15" t="s" s="13">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s" s="15">
+        <v>204</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>200</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="A16" t="s" s="13">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s" s="15">
+        <v>206</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
-        <v>201</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="A17" t="s" s="13">
+        <v>207</v>
+      </c>
+      <c r="B17" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s" s="15">
+        <v>208</v>
+      </c>
+      <c r="D17" t="s" s="15">
+        <v>202</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="A18" t="s" s="13">
+        <v>209</v>
+      </c>
+      <c r="B18" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s" s="15">
+        <v>210</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>202</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
-        <v>203</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="A19" t="s" s="13">
+        <v>211</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>204</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" t="s" s="13">
+        <v>212</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="11">
-        <v>205</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" t="s" s="13">
+        <v>213</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
-        <v>206</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="A22" t="s" s="13">
+        <v>214</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="11">
-        <v>207</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" t="s" s="13">
+        <v>215</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="11">
-        <v>208</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="A24" t="s" s="13">
+        <v>216</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="11">
-        <v>209</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" t="s" s="13">
+        <v>217</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="11">
-        <v>210</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="A26" t="s" s="13">
+        <v>218</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
-        <v>211</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" t="s" s="13">
+        <v>219</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="11">
-        <v>212</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="A28" t="s" s="13">
+        <v>220</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="11">
-        <v>213</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" t="s" s="13">
+        <v>221</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="11">
-        <v>214</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="A30" t="s" s="13">
+        <v>222</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="11">
-        <v>215</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" t="s" s="13">
+        <v>223</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="11">
-        <v>216</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="A32" t="s" s="13">
+        <v>224</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="11">
-        <v>217</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="A33" t="s" s="13">
+        <v>225</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="11">
-        <v>218</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="A34" t="s" s="13">
+        <v>226</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="18">
-        <v>219</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="A35" t="s" s="20">
+        <v>227</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="11">
-        <v>220</v>
-      </c>
-      <c r="B36" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" t="s" s="13">
-        <v>221</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="A36" t="s" s="13">
+        <v>228</v>
+      </c>
+      <c r="B36" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" t="s" s="15">
+        <v>229</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="11">
-        <v>222</v>
-      </c>
-      <c r="B37" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="A37" t="s" s="13">
+        <v>230</v>
+      </c>
+      <c r="B37" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="11">
-        <v>223</v>
-      </c>
-      <c r="B38" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="A38" t="s" s="13">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="11">
-        <v>224</v>
-      </c>
-      <c r="B39" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" t="s" s="13">
-        <v>225</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="A39" t="s" s="13">
+        <v>232</v>
+      </c>
+      <c r="B39" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" t="s" s="15">
+        <v>233</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" ht="32.05" customHeight="1">
-      <c r="A40" t="s" s="11">
-        <v>226</v>
-      </c>
-      <c r="B40" t="s" s="12">
+      <c r="A40" t="s" s="13">
+        <v>234</v>
+      </c>
+      <c r="B40" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C40" t="s" s="13">
-        <v>227</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="C40" t="s" s="15">
+        <v>235</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="11">
-        <v>228</v>
-      </c>
-      <c r="B41" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="A41" t="s" s="13">
+        <v>236</v>
+      </c>
+      <c r="B41" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="11">
-        <v>229</v>
-      </c>
-      <c r="B42" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="A42" t="s" s="13">
+        <v>237</v>
+      </c>
+      <c r="B42" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="11">
-        <v>230</v>
-      </c>
-      <c r="B43" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="A43" t="s" s="13">
+        <v>238</v>
+      </c>
+      <c r="B43" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="11">
-        <v>231</v>
-      </c>
-      <c r="B44" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="A44" t="s" s="13">
+        <v>239</v>
+      </c>
+      <c r="B44" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="11">
-        <v>232</v>
-      </c>
-      <c r="B45" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="A45" t="s" s="13">
+        <v>240</v>
+      </c>
+      <c r="B45" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="23">
-        <v>233</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="A46" t="s" s="25">
+        <v>241</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="18">
-        <v>234</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="A47" t="s" s="20">
+        <v>242</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="11">
-        <v>235</v>
-      </c>
-      <c r="B48" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="A48" t="s" s="13">
+        <v>243</v>
+      </c>
+      <c r="B48" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="11">
-        <v>236</v>
-      </c>
-      <c r="B49" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="A49" t="s" s="13">
+        <v>244</v>
+      </c>
+      <c r="B49" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="11">
-        <v>237</v>
-      </c>
-      <c r="B50" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
+      <c r="A50" t="s" s="13">
+        <v>245</v>
+      </c>
+      <c r="B50" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" ht="32.05" customHeight="1">
-      <c r="A51" t="s" s="11">
-        <v>238</v>
-      </c>
-      <c r="B51" t="s" s="12">
+      <c r="A51" t="s" s="13">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C51" t="s" s="13">
-        <v>239</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="C51" t="s" s="15">
+        <v>247</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="11">
-        <v>240</v>
-      </c>
-      <c r="B52" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="A52" t="s" s="13">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" ht="32.05" customHeight="1">
-      <c r="A53" t="s" s="11">
-        <v>241</v>
-      </c>
-      <c r="B53" t="s" s="12">
+      <c r="A53" t="s" s="13">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" t="s" s="13">
-        <v>242</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+      <c r="C53" s="16"/>
+      <c r="D53" t="s" s="15">
+        <v>250</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="11">
-        <v>243</v>
-      </c>
-      <c r="B54" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="A54" t="s" s="13">
+        <v>251</v>
+      </c>
+      <c r="B54" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="18">
-        <v>244</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
+      <c r="A55" t="s" s="20">
+        <v>252</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="18">
-        <v>245</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="A56" t="s" s="20">
+        <v>253</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="11">
-        <v>246</v>
-      </c>
-      <c r="B57" t="s" s="12">
-        <v>247</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="A57" t="s" s="13">
+        <v>254</v>
+      </c>
+      <c r="B57" t="s" s="14">
+        <v>255</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="11">
-        <v>248</v>
-      </c>
-      <c r="B58" t="s" s="12">
-        <v>247</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
+      <c r="A58" t="s" s="13">
+        <v>256</v>
+      </c>
+      <c r="B58" t="s" s="14">
+        <v>255</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="11">
-        <v>249</v>
-      </c>
-      <c r="B59" t="s" s="12">
-        <v>247</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="A59" t="s" s="13">
+        <v>257</v>
+      </c>
+      <c r="B59" t="s" s="14">
+        <v>255</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="11">
-        <v>250</v>
-      </c>
-      <c r="B60" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="A60" t="s" s="13">
+        <v>258</v>
+      </c>
+      <c r="B60" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="11">
-        <v>251</v>
-      </c>
-      <c r="B61" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="A61" t="s" s="13">
+        <v>259</v>
+      </c>
+      <c r="B61" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="11">
-        <v>252</v>
-      </c>
-      <c r="B62" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
+      <c r="A62" t="s" s="13">
+        <v>260</v>
+      </c>
+      <c r="B62" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="11">
-        <v>253</v>
-      </c>
-      <c r="B63" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+      <c r="A63" t="s" s="13">
+        <v>261</v>
+      </c>
+      <c r="B63" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="11">
-        <v>254</v>
-      </c>
-      <c r="B64" t="s" s="12">
-        <v>247</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
+      <c r="A64" t="s" s="13">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s" s="14">
+        <v>255</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="11">
+      <c r="A65" t="s" s="13">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" ht="32.05" customHeight="1">
+      <c r="A66" t="s" s="13">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s" s="15">
+        <v>265</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" ht="20.05" customHeight="1">
+      <c r="A67" t="s" s="20">
+        <v>266</v>
+      </c>
+      <c r="B67" t="s" s="23">
         <v>255</v>
       </c>
-      <c r="B65" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" ht="32.05" customHeight="1">
-      <c r="A66" t="s" s="11">
-        <v>256</v>
-      </c>
-      <c r="B66" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s" s="13">
-        <v>257</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="18">
-        <v>258</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="C67" t="s" s="24">
+        <v>267</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="23">
-        <v>259</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="A68" t="s" s="25">
+        <v>268</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6045,871 +6174,893 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="72.9375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="32" customWidth="1"/>
-    <col min="3" max="3" width="29.9531" style="32" customWidth="1"/>
-    <col min="4" max="4" width="28.8438" style="32" customWidth="1"/>
-    <col min="5" max="8" width="16.3516" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="32" customWidth="1"/>
+    <col min="1" max="1" width="73" style="34" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="34" customWidth="1"/>
+    <col min="3" max="3" width="30" style="34" customWidth="1"/>
+    <col min="4" max="4" width="45.4844" style="34" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>261</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="A3" t="s" s="7">
+        <v>270</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>262</v>
-      </c>
-      <c r="B4" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" t="s" s="13">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>263</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="A5" t="s" s="13">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>264</v>
-      </c>
-      <c r="B6" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="A6" t="s" s="13">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>265</v>
-      </c>
-      <c r="B7" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="A7" t="s" s="13">
+        <v>274</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>266</v>
-      </c>
-      <c r="B8" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="A8" t="s" s="13">
+        <v>275</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>267</v>
-      </c>
-      <c r="B9" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="A9" t="s" s="13">
+        <v>276</v>
+      </c>
+      <c r="B9" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>268</v>
-      </c>
-      <c r="B10" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="A10" t="s" s="13">
+        <v>277</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>269</v>
-      </c>
-      <c r="B11" t="s" s="12">
+      <c r="A11" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="B11" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C11" t="s" s="13">
-        <v>270</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="C11" t="s" s="15">
+        <v>279</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>271</v>
-      </c>
-      <c r="B12" t="s" s="12">
+      <c r="A12" t="s" s="13">
+        <v>280</v>
+      </c>
+      <c r="B12" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C12" t="s" s="13">
-        <v>272</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="C12" t="s" s="15">
+        <v>281</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="23">
-        <v>273</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="A13" t="s" s="25">
+        <v>282</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>274</v>
-      </c>
-      <c r="B14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="A14" t="s" s="13">
+        <v>283</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>275</v>
-      </c>
-      <c r="B15" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="A15" t="s" s="13">
+        <v>284</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>276</v>
-      </c>
-      <c r="B16" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="A16" t="s" s="13">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" ht="68.05" customHeight="1">
-      <c r="A17" t="s" s="11">
-        <v>277</v>
-      </c>
-      <c r="B17" t="s" s="12">
+      <c r="A17" t="s" s="13">
+        <v>286</v>
+      </c>
+      <c r="B17" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C17" t="s" s="13">
-        <v>278</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="C17" t="s" s="15">
+        <v>287</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="32.05" customHeight="1">
-      <c r="A18" t="s" s="11">
-        <v>279</v>
-      </c>
-      <c r="B18" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" t="s" s="13">
-        <v>280</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="A18" t="s" s="13">
+        <v>288</v>
+      </c>
+      <c r="B18" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" t="s" s="15">
+        <v>289</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
-        <v>281</v>
-      </c>
-      <c r="B19" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="A19" t="s" s="13">
+        <v>290</v>
+      </c>
+      <c r="B19" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>282</v>
-      </c>
-      <c r="B20" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" t="s" s="13">
+        <v>291</v>
+      </c>
+      <c r="B20" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="11">
-        <v>283</v>
-      </c>
-      <c r="B21" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" t="s" s="13">
+        <v>292</v>
+      </c>
+      <c r="B21" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
-        <v>284</v>
-      </c>
-      <c r="B22" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="A22" t="s" s="13">
+        <v>293</v>
+      </c>
+      <c r="B22" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="11">
-        <v>285</v>
-      </c>
-      <c r="B23" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" t="s" s="13">
+        <v>294</v>
+      </c>
+      <c r="B23" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="11">
-        <v>286</v>
-      </c>
-      <c r="B24" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="A24" t="s" s="13">
+        <v>295</v>
+      </c>
+      <c r="B24" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="11">
-        <v>287</v>
-      </c>
-      <c r="B25" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" t="s" s="13">
+        <v>296</v>
+      </c>
+      <c r="B25" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="11">
-        <v>288</v>
-      </c>
-      <c r="B26" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="A26" t="s" s="13">
+        <v>297</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
-        <v>289</v>
-      </c>
-      <c r="B27" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" t="s" s="13">
+        <v>298</v>
+      </c>
+      <c r="B27" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" t="s" s="11">
-        <v>290</v>
-      </c>
-      <c r="B28" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" t="s" s="13">
-        <v>291</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="A28" t="s" s="13">
+        <v>299</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" t="s" s="15">
+        <v>300</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="11">
-        <v>292</v>
-      </c>
-      <c r="B29" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" t="s" s="13">
+        <v>301</v>
+      </c>
+      <c r="B29" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="11">
-        <v>293</v>
-      </c>
-      <c r="B30" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="A30" t="s" s="13">
+        <v>302</v>
+      </c>
+      <c r="B30" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="B31" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" t="s" s="13">
+        <v>303</v>
+      </c>
+      <c r="B31" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="11">
-        <v>295</v>
-      </c>
-      <c r="B32" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="A32" t="s" s="13">
+        <v>304</v>
+      </c>
+      <c r="B32" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" ht="68.05" customHeight="1">
-      <c r="A33" t="s" s="11">
-        <v>296</v>
-      </c>
-      <c r="B33" t="s" s="12">
+      <c r="A33" t="s" s="13">
+        <v>305</v>
+      </c>
+      <c r="B33" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" t="s" s="13">
-        <v>297</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" t="s" s="15">
+        <v>306</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="23">
-        <v>298</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="A34" t="s" s="25">
+        <v>307</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="11">
-        <v>299</v>
-      </c>
-      <c r="B35" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="A35" t="s" s="13">
+        <v>308</v>
+      </c>
+      <c r="B35" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="11">
-        <v>300</v>
-      </c>
-      <c r="B36" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="A36" t="s" s="13">
+        <v>309</v>
+      </c>
+      <c r="B36" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="11">
-        <v>301</v>
-      </c>
-      <c r="B37" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="A37" t="s" s="13">
+        <v>310</v>
+      </c>
+      <c r="B37" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="11">
-        <v>302</v>
-      </c>
-      <c r="B38" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="A38" t="s" s="13">
+        <v>311</v>
+      </c>
+      <c r="B38" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="11">
-        <v>303</v>
-      </c>
-      <c r="B39" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="A39" t="s" s="13">
+        <v>312</v>
+      </c>
+      <c r="B39" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="11">
-        <v>304</v>
-      </c>
-      <c r="B40" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="A40" t="s" s="13">
+        <v>313</v>
+      </c>
+      <c r="B40" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" ht="56.05" customHeight="1">
-      <c r="A41" t="s" s="11">
-        <v>305</v>
-      </c>
-      <c r="B41" t="s" s="12">
+      <c r="A41" t="s" s="13">
+        <v>314</v>
+      </c>
+      <c r="B41" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C41" t="s" s="13">
-        <v>306</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="C41" t="s" s="15">
+        <v>315</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="23">
-        <v>307</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="A42" t="s" s="25">
+        <v>316</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" ht="32.05" customHeight="1">
-      <c r="A43" t="s" s="11">
-        <v>308</v>
-      </c>
-      <c r="B43" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" t="s" s="13">
-        <v>309</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="A43" t="s" s="13">
+        <v>317</v>
+      </c>
+      <c r="B43" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" t="s" s="15">
+        <v>318</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="11">
-        <v>310</v>
-      </c>
-      <c r="B44" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="A44" t="s" s="13">
+        <v>319</v>
+      </c>
+      <c r="B44" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="23">
-        <v>311</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="A45" t="s" s="25">
+        <v>320</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="11">
-        <v>312</v>
-      </c>
-      <c r="B46" t="s" s="12">
+      <c r="A46" t="s" s="13">
+        <v>321</v>
+      </c>
+      <c r="B46" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" t="s" s="13">
-        <v>313</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" t="s" s="15">
+        <v>322</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" ht="80.05" customHeight="1">
-      <c r="A47" t="s" s="11">
-        <v>314</v>
-      </c>
-      <c r="B47" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" t="s" s="13">
-        <v>315</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="11">
-        <v>316</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="A47" t="s" s="13">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" t="s" s="15">
+        <v>324</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" ht="26.7" customHeight="1">
+      <c r="A48" t="s" s="13">
+        <v>325</v>
+      </c>
+      <c r="B48" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s" s="15">
+        <v>326</v>
+      </c>
+      <c r="D48" t="s" s="15">
+        <v>327</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="11">
-        <v>317</v>
-      </c>
-      <c r="B49" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="A49" t="s" s="13">
+        <v>328</v>
+      </c>
+      <c r="B49" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="23">
-        <v>318</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="A50" t="s" s="25">
+        <v>329</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="18">
-        <v>319</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="A51" t="s" s="20">
+        <v>330</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" ht="32.05" customHeight="1">
-      <c r="A52" t="s" s="11">
-        <v>320</v>
-      </c>
-      <c r="B52" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" t="s" s="13">
-        <v>321</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="A52" t="s" s="13">
+        <v>331</v>
+      </c>
+      <c r="B52" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" t="s" s="15">
+        <v>332</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="11">
-        <v>322</v>
-      </c>
-      <c r="B53" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+      <c r="A53" t="s" s="13">
+        <v>333</v>
+      </c>
+      <c r="B53" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="11">
-        <v>323</v>
-      </c>
-      <c r="B54" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="A54" t="s" s="13">
+        <v>334</v>
+      </c>
+      <c r="B54" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="11">
-        <v>324</v>
-      </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="A55" t="s" s="13">
+        <v>335</v>
+      </c>
+      <c r="B55" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="11">
-        <v>325</v>
-      </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="A56" t="s" s="13">
+        <v>336</v>
+      </c>
+      <c r="B56" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="11">
-        <v>326</v>
-      </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="11">
-        <v>327</v>
-      </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
+      <c r="A57" t="s" s="13">
+        <v>337</v>
+      </c>
+      <c r="B57" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" ht="50.7" customHeight="1">
+      <c r="A58" t="s" s="13">
+        <v>338</v>
+      </c>
+      <c r="B58" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" t="s" s="15">
+        <v>339</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="11">
-        <v>328</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="A59" t="s" s="13">
+        <v>340</v>
+      </c>
+      <c r="B59" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="11">
-        <v>329</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="A60" t="s" s="13">
+        <v>341</v>
+      </c>
+      <c r="B60" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" t="s" s="15">
+        <v>342</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="11">
-        <v>330</v>
-      </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="A61" t="s" s="13">
+        <v>343</v>
+      </c>
+      <c r="B61" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6939,517 +7090,515 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="79.7656" style="33" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="33" customWidth="1"/>
-    <col min="3" max="3" width="28.8359" style="33" customWidth="1"/>
-    <col min="4" max="4" width="30.3438" style="33" customWidth="1"/>
-    <col min="5" max="8" width="16.3516" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="33" customWidth="1"/>
+    <col min="1" max="1" width="79.8516" style="35" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="35" customWidth="1"/>
+    <col min="3" max="3" width="28.8516" style="35" customWidth="1"/>
+    <col min="4" max="4" width="30.3516" style="35" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>332</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="A3" t="s" s="7">
+        <v>345</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>333</v>
-      </c>
-      <c r="B4" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" t="s" s="13">
+        <v>346</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>334</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="A5" t="s" s="13">
+        <v>347</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>335</v>
-      </c>
-      <c r="B6" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="A6" t="s" s="13">
+        <v>348</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>336</v>
-      </c>
-      <c r="B7" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="A7" t="s" s="13">
+        <v>349</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>337</v>
-      </c>
-      <c r="B8" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="A8" t="s" s="13">
+        <v>350</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>338</v>
-      </c>
-      <c r="B9" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="A9" t="s" s="13">
+        <v>351</v>
+      </c>
+      <c r="B9" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>339</v>
-      </c>
-      <c r="B10" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="A10" t="s" s="13">
+        <v>352</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>340</v>
-      </c>
-      <c r="B11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="A11" t="s" s="13">
+        <v>353</v>
+      </c>
+      <c r="B11" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>341</v>
-      </c>
-      <c r="B12" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="A12" t="s" s="13">
+        <v>354</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>342</v>
-      </c>
-      <c r="B13" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="A13" t="s" s="13">
+        <v>355</v>
+      </c>
+      <c r="B13" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>343</v>
-      </c>
-      <c r="B14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="A14" t="s" s="13">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>344</v>
-      </c>
-      <c r="B15" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="A15" t="s" s="13">
+        <v>357</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>345</v>
-      </c>
-      <c r="B16" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="A16" t="s" s="13">
+        <v>358</v>
+      </c>
+      <c r="B16" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
-        <v>346</v>
-      </c>
-      <c r="B17" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="A17" t="s" s="13">
+        <v>359</v>
+      </c>
+      <c r="B17" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="44.05" customHeight="1">
-      <c r="A18" t="s" s="11">
-        <v>347</v>
-      </c>
-      <c r="B18" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" t="s" s="13">
-        <v>348</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="A18" t="s" s="13">
+        <v>360</v>
+      </c>
+      <c r="B18" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" t="s" s="15">
+        <v>361</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="23">
-        <v>349</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="A19" t="s" s="25">
+        <v>362</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>350</v>
-      </c>
-      <c r="B20" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" t="s" s="13">
+        <v>363</v>
+      </c>
+      <c r="B20" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="11">
-        <v>351</v>
-      </c>
-      <c r="B21" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" t="s" s="13">
+        <v>364</v>
+      </c>
+      <c r="B21" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
-        <v>352</v>
-      </c>
-      <c r="B22" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="A22" t="s" s="13">
+        <v>365</v>
+      </c>
+      <c r="B22" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="11">
-        <v>353</v>
-      </c>
-      <c r="B23" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" t="s" s="13">
+        <v>366</v>
+      </c>
+      <c r="B23" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="11">
-        <v>354</v>
-      </c>
-      <c r="B24" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="A24" t="s" s="13">
+        <v>367</v>
+      </c>
+      <c r="B24" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="11">
-        <v>355</v>
-      </c>
-      <c r="B25" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" t="s" s="13">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="11">
-        <v>356</v>
-      </c>
-      <c r="B26" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="A26" t="s" s="13">
+        <v>369</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" ht="68.05" customHeight="1">
-      <c r="A27" t="s" s="11">
-        <v>357</v>
-      </c>
-      <c r="B27" t="s" s="12">
+      <c r="A27" t="s" s="13">
+        <v>370</v>
+      </c>
+      <c r="B27" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C27" t="s" s="13">
-        <v>358</v>
-      </c>
-      <c r="D27" t="s" s="13">
-        <v>359</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="C27" t="s" s="15">
+        <v>371</v>
+      </c>
+      <c r="D27" t="s" s="15">
+        <v>372</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="11">
-        <v>360</v>
-      </c>
-      <c r="B28" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="A28" t="s" s="13">
+        <v>373</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="11">
-        <v>361</v>
-      </c>
-      <c r="B29" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" t="s" s="13">
+        <v>374</v>
+      </c>
+      <c r="B29" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="11">
-        <v>362</v>
-      </c>
-      <c r="B30" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="A30" t="s" s="13">
+        <v>375</v>
+      </c>
+      <c r="B30" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="11">
-        <v>363</v>
-      </c>
-      <c r="B31" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" t="s" s="13">
+        <v>376</v>
+      </c>
+      <c r="B31" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="11">
-        <v>364</v>
-      </c>
-      <c r="B32" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="A32" t="s" s="13">
+        <v>377</v>
+      </c>
+      <c r="B32" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="11">
-        <v>365</v>
-      </c>
-      <c r="B33" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="A33" t="s" s="13">
+        <v>378</v>
+      </c>
+      <c r="B33" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="11">
-        <v>366</v>
-      </c>
-      <c r="B34" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="A34" t="s" s="13">
+        <v>379</v>
+      </c>
+      <c r="B34" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="11">
-        <v>367</v>
-      </c>
-      <c r="B35" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="A35" t="s" s="13">
+        <v>380</v>
+      </c>
+      <c r="B35" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/rhel9-cis-benchmarks_1-0-0.xlsx
+++ b/rhel9-cis-benchmarks_1-0-0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
   <si>
     <t>1 Initial Setup</t>
   </si>
@@ -730,33 +730,63 @@
     <t>4.1.3.6 Ensure use of privileged commands are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-6_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.7 Ensure unsuccessful file access attempts are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-7_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.8 Ensure events that modify user/group information are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-8_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.9 Ensure discretionary access control permission modification events are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-9_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.10 Ensure successful file system mounts are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-10_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.11 Ensure session initiation information is collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-11_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.12 Ensure login and logout events are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-12_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.13 Ensure file deletion events by users are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-13_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.14 Ensure events that modify the system's Mandatory Access Controls are collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-14_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.15 Ensure successful and unsuccessful attempts to use the chcon command are recorded (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-15_17_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.16 Ensure successful and unsuccessful attempts to use the setfacl command are recorded (Automated)</t>
   </si>
   <si>
@@ -766,12 +796,21 @@
     <t>4.1.3.18 Ensure successful and unsuccessful attempts to use the usermod command are recorded (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-18_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.19 Ensure kernel module loading unloading and modification is collected (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-19_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.20 Ensure the audit configuration is immutable (Automated)</t>
   </si>
   <si>
+    <t>Execute rhel9-cis-scripts/4-1-3-20_remediate.sh.</t>
+  </si>
+  <si>
     <t>4.1.3.21 Ensure the running and on disk configuration is the same (Manual)</t>
   </si>
   <si>
@@ -835,7 +874,7 @@
     <t>4.2.1.4 Ensure rsyslog default file permissions are configured (Automated)</t>
   </si>
   <si>
-    <t>Added /etc/rsyslog.d/filecreatemode.conf.</t>
+    <t>Added /etc/rsyslog.d/filecreatemode.conf</t>
   </si>
   <si>
     <t>4.2.1.5 Ensure logging is configured (Manual)</t>
@@ -895,7 +934,10 @@
     <t>4.2.3 Ensure all logfiles have appropriate permissions and ownership (Automated)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reviewed logs with 0644 permissions </t>
+    <t>Reviewed logs with 0644 permissions</t>
+  </si>
+  <si>
+    <t>There is an error in the script to debug</t>
   </si>
   <si>
     <t>4.3 Ensure logrotate is configured (Manual)</t>
@@ -1494,7 +1536,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1594,9 +1636,6 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1607,7 +1646,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="ff000000"/>
@@ -1649,6 +1688,50 @@
         <patternFill patternType="solid">
           <fgColor indexed="15"/>
           <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
+          <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="15"/>
+          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5188,7 +5271,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5196,10 +5279,10 @@
   <cols>
     <col min="1" max="1" width="89.6719" style="32" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="32" customWidth="1"/>
-    <col min="3" max="3" width="65.6094" style="32" customWidth="1"/>
-    <col min="4" max="4" width="57.0938" style="32" customWidth="1"/>
-    <col min="5" max="8" width="16.3516" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="32" customWidth="1"/>
+    <col min="3" max="3" width="45.7969" style="32" customWidth="1"/>
+    <col min="4" max="4" width="57.1719" style="32" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
@@ -5209,10 +5292,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="5">
@@ -5230,9 +5310,6 @@
       <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="7">
@@ -5242,9 +5319,6 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="20">
@@ -5254,9 +5328,6 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="13">
@@ -5268,9 +5339,6 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="13">
@@ -5282,9 +5350,6 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="13">
@@ -5298,9 +5363,6 @@
         <v>189</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="13">
@@ -5312,9 +5374,6 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="20">
@@ -5324,9 +5383,6 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="13">
@@ -5340,9 +5396,6 @@
         <v>193</v>
       </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="13">
@@ -5354,9 +5407,6 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="26.7" customHeight="1">
       <c r="A12" t="s" s="13">
@@ -5372,9 +5422,6 @@
         <v>197</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="26.7" customHeight="1">
       <c r="A13" t="s" s="20">
@@ -5386,9 +5433,6 @@
         <v>199</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
     </row>
     <row r="14" ht="14.7" customHeight="1">
       <c r="A14" t="s" s="13">
@@ -5404,9 +5448,6 @@
         <v>202</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="14.7" customHeight="1">
       <c r="A15" t="s" s="13">
@@ -5420,9 +5461,6 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="13">
@@ -5436,9 +5474,6 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="13">
@@ -5454,9 +5489,6 @@
         <v>202</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="13">
@@ -5472,233 +5504,256 @@
         <v>202</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="13">
         <v>211</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s" s="15">
+        <v>212</v>
+      </c>
+      <c r="D19" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="13">
-        <v>212</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="B20" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s" s="15">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="13">
-        <v>213</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+        <v>215</v>
+      </c>
+      <c r="B21" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s" s="15">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="13">
-        <v>214</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+        <v>217</v>
+      </c>
+      <c r="B22" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s" s="15">
+        <v>218</v>
+      </c>
+      <c r="D22" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="13">
-        <v>215</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+        <v>219</v>
+      </c>
+      <c r="B23" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="D23" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="13">
-        <v>216</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+        <v>221</v>
+      </c>
+      <c r="B24" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s" s="15">
+        <v>222</v>
+      </c>
+      <c r="D24" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="13">
-        <v>217</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+        <v>223</v>
+      </c>
+      <c r="B25" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s" s="15">
+        <v>224</v>
+      </c>
+      <c r="D25" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="13">
-        <v>218</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s" s="15">
+        <v>226</v>
+      </c>
+      <c r="D26" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="13">
-        <v>219</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+        <v>227</v>
+      </c>
+      <c r="B27" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s" s="15">
+        <v>228</v>
+      </c>
+      <c r="D27" t="s" s="15">
+        <v>202</v>
+      </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="13">
-        <v>220</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="16"/>
+        <v>229</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="15">
+        <v>230</v>
+      </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="13">
-        <v>221</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="16"/>
+        <v>231</v>
+      </c>
+      <c r="B29" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s" s="15">
+        <v>230</v>
+      </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="13">
-        <v>222</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="16"/>
+        <v>232</v>
+      </c>
+      <c r="B30" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s" s="15">
+        <v>230</v>
+      </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="13">
-        <v>223</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="16"/>
+        <v>233</v>
+      </c>
+      <c r="B31" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s" s="15">
+        <v>234</v>
+      </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="13">
-        <v>224</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="16"/>
+        <v>235</v>
+      </c>
+      <c r="B32" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s" s="15">
+        <v>236</v>
+      </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="13">
-        <v>225</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="16"/>
+        <v>237</v>
+      </c>
+      <c r="B33" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s" s="15">
+        <v>238</v>
+      </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="13">
-        <v>226</v>
-      </c>
-      <c r="B34" s="33"/>
+        <v>239</v>
+      </c>
+      <c r="B34" t="s" s="14">
+        <v>15</v>
+      </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="20">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="13">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" t="s" s="15">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="13">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s" s="14">
         <v>15</v>
@@ -5706,13 +5761,10 @@
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="13">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s" s="14">
         <v>15</v>
@@ -5720,45 +5772,36 @@
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="13">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" t="s" s="15">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
     </row>
     <row r="40" ht="32.05" customHeight="1">
       <c r="A40" t="s" s="13">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C40" t="s" s="15">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="13">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="14">
         <v>15</v>
@@ -5766,13 +5809,10 @@
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="13">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s" s="14">
         <v>15</v>
@@ -5780,13 +5820,10 @@
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="13">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B43" t="s" s="14">
         <v>15</v>
@@ -5794,13 +5831,10 @@
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="13">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B44" t="s" s="14">
         <v>15</v>
@@ -5808,13 +5842,10 @@
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="13">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s" s="14">
         <v>15</v>
@@ -5822,37 +5853,28 @@
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="25">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="20">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="13">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s" s="14">
         <v>15</v>
@@ -5860,13 +5882,10 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="13">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s" s="14">
         <v>15</v>
@@ -5874,13 +5893,10 @@
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="13">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B50" t="s" s="14">
         <v>15</v>
@@ -5888,29 +5904,23 @@
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
     </row>
     <row r="51" ht="32.05" customHeight="1">
       <c r="A51" t="s" s="13">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B51" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C51" t="s" s="15">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="13">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B52" t="s" s="14">
         <v>15</v>
@@ -5918,29 +5928,23 @@
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
     </row>
     <row r="53" ht="32.05" customHeight="1">
       <c r="A53" t="s" s="13">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B53" t="s" s="14">
         <v>82</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" t="s" s="15">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="13">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s" s="14">
         <v>15</v>
@@ -5948,79 +5952,61 @@
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="20">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="20">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="13">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B57" t="s" s="14">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="13">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="B58" t="s" s="14">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="13">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B59" t="s" s="14">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="13">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B60" t="s" s="14">
         <v>15</v>
@@ -6028,13 +6014,10 @@
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="13">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B61" t="s" s="14">
         <v>15</v>
@@ -6042,13 +6025,10 @@
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="13">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s" s="14">
         <v>15</v>
@@ -6056,13 +6036,10 @@
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="13">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B63" t="s" s="14">
         <v>15</v>
@@ -6070,27 +6047,21 @@
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="13">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s" s="14">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="13">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s" s="14">
         <v>15</v>
@@ -6098,59 +6069,51 @@
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
     </row>
     <row r="66" ht="32.05" customHeight="1">
       <c r="A66" t="s" s="13">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B66" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C66" t="s" s="15">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
+    </row>
+    <row r="67" ht="14.7" customHeight="1">
       <c r="A67" t="s" s="20">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B67" t="s" s="23">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s" s="24">
-        <v>267</v>
-      </c>
-      <c r="D67" s="22"/>
+        <v>280</v>
+      </c>
+      <c r="D67" t="s" s="24">
+        <v>281</v>
+      </c>
       <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="25">
-        <v>268</v>
-      </c>
-      <c r="B68" s="26"/>
+        <v>282</v>
+      </c>
+      <c r="B68" t="s" s="28">
+        <v>15</v>
+      </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B68">
+  <conditionalFormatting sqref="B2:B21 B35:B67">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Pass"</formula>
     </cfRule>
@@ -6161,6 +6124,20 @@
       <formula>"Remediated"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="4" operator="equal" stopIfTrue="1">
+      <formula>"Alternate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B34 B68">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal" stopIfTrue="1">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal" stopIfTrue="1">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal" stopIfTrue="1">
+      <formula>"Remediated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal" stopIfTrue="1">
       <formula>"Alternate"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6180,17 +6157,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="73" style="34" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="34" customWidth="1"/>
-    <col min="3" max="3" width="30" style="34" customWidth="1"/>
-    <col min="4" max="4" width="45.4844" style="34" customWidth="1"/>
-    <col min="5" max="8" width="16.3516" style="34" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="34" customWidth="1"/>
+    <col min="1" max="1" width="73" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="33" customWidth="1"/>
+    <col min="3" max="3" width="30" style="33" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="33" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6222,7 +6199,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -6234,7 +6211,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="13">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s" s="14">
         <v>15</v>
@@ -6248,7 +6225,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="13">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s" s="14">
         <v>15</v>
@@ -6262,7 +6239,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="13">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s" s="14">
         <v>15</v>
@@ -6276,7 +6253,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="13">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s" s="14">
         <v>15</v>
@@ -6290,7 +6267,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="13">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s" s="14">
         <v>15</v>
@@ -6304,7 +6281,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="13">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s" s="14">
         <v>15</v>
@@ -6318,7 +6295,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="13">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s" s="14">
         <v>15</v>
@@ -6332,13 +6309,13 @@
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="13">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C11" t="s" s="15">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -6348,13 +6325,13 @@
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C12" t="s" s="15">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -6364,7 +6341,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="25">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -6376,7 +6353,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s" s="14">
         <v>15</v>
@@ -6390,7 +6367,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s" s="14">
         <v>15</v>
@@ -6404,7 +6381,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="13">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s" s="14">
         <v>15</v>
@@ -6418,13 +6395,13 @@
     </row>
     <row r="17" ht="68.05" customHeight="1">
       <c r="A17" t="s" s="13">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C17" t="s" s="15">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -6434,14 +6411,14 @@
     </row>
     <row r="18" ht="32.05" customHeight="1">
       <c r="A18" t="s" s="13">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" t="s" s="15">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -6450,7 +6427,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="13">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s" s="14">
         <v>15</v>
@@ -6464,7 +6441,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="13">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s" s="14">
         <v>15</v>
@@ -6478,7 +6455,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="13">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s" s="14">
         <v>15</v>
@@ -6492,7 +6469,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="13">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s" s="14">
         <v>15</v>
@@ -6506,7 +6483,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="13">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s" s="14">
         <v>15</v>
@@ -6520,7 +6497,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="13">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s" s="14">
         <v>15</v>
@@ -6534,7 +6511,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="13">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s" s="14">
         <v>15</v>
@@ -6548,7 +6525,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="13">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s" s="14">
         <v>15</v>
@@ -6562,7 +6539,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="13">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s" s="14">
         <v>15</v>
@@ -6576,14 +6553,14 @@
     </row>
     <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="13">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" t="s" s="15">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -6592,7 +6569,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="13">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s" s="14">
         <v>15</v>
@@ -6606,7 +6583,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="13">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B30" t="s" s="14">
         <v>15</v>
@@ -6620,7 +6597,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="13">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s" s="14">
         <v>15</v>
@@ -6634,7 +6611,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="13">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="14">
         <v>15</v>
@@ -6648,14 +6625,14 @@
     </row>
     <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="13">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="14">
         <v>82</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" t="s" s="15">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -6664,7 +6641,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="25">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
@@ -6676,7 +6653,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="13">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="14">
         <v>15</v>
@@ -6690,7 +6667,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="13">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="14">
         <v>15</v>
@@ -6704,7 +6681,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="13">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="14">
         <v>15</v>
@@ -6718,7 +6695,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="13">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="14">
         <v>15</v>
@@ -6732,7 +6709,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="13">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="14">
         <v>15</v>
@@ -6746,7 +6723,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="13">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="14">
         <v>15</v>
@@ -6760,13 +6737,13 @@
     </row>
     <row r="41" ht="56.05" customHeight="1">
       <c r="A41" t="s" s="13">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C41" t="s" s="15">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -6776,7 +6753,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="25">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
@@ -6788,14 +6765,14 @@
     </row>
     <row r="43" ht="32.05" customHeight="1">
       <c r="A43" t="s" s="13">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" t="s" s="15">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -6804,7 +6781,7 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="13">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="14">
         <v>15</v>
@@ -6818,7 +6795,7 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="25">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
@@ -6830,14 +6807,14 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="13">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="14">
         <v>82</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" t="s" s="15">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -6846,14 +6823,14 @@
     </row>
     <row r="47" ht="80.05" customHeight="1">
       <c r="A47" t="s" s="13">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" t="s" s="15">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -6862,16 +6839,16 @@
     </row>
     <row r="48" ht="26.7" customHeight="1">
       <c r="A48" t="s" s="13">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C48" t="s" s="15">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D48" t="s" s="15">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -6880,7 +6857,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="13">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="14">
         <v>15</v>
@@ -6894,7 +6871,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="25">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
@@ -6906,7 +6883,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="20">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -6918,14 +6895,14 @@
     </row>
     <row r="52" ht="32.05" customHeight="1">
       <c r="A52" t="s" s="13">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" t="s" s="15">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -6934,7 +6911,7 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="13">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="14">
         <v>15</v>
@@ -6948,7 +6925,7 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="13">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="14">
         <v>15</v>
@@ -6962,7 +6939,7 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="13">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s" s="14">
         <v>15</v>
@@ -6976,7 +6953,7 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="13">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="14">
         <v>15</v>
@@ -6990,7 +6967,7 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="13">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s" s="14">
         <v>15</v>
@@ -7004,14 +6981,14 @@
     </row>
     <row r="58" ht="50.7" customHeight="1">
       <c r="A58" t="s" s="13">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" t="s" s="15">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
@@ -7020,7 +6997,7 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="13">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B59" t="s" s="14">
         <v>15</v>
@@ -7034,14 +7011,14 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="13">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" t="s" s="15">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -7050,7 +7027,7 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="13">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B61" t="s" s="14">
         <v>15</v>
@@ -7067,16 +7044,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B61">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal" stopIfTrue="1">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal" stopIfTrue="1">
       <formula>"Alternate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal" stopIfTrue="1">
       <formula>"Remediated"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7096,17 +7073,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="79.8516" style="35" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="35" customWidth="1"/>
-    <col min="3" max="3" width="28.8516" style="35" customWidth="1"/>
-    <col min="4" max="4" width="30.3516" style="35" customWidth="1"/>
-    <col min="5" max="8" width="16.3516" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="35" customWidth="1"/>
+    <col min="1" max="1" width="79.8516" style="34" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="34" customWidth="1"/>
+    <col min="3" max="3" width="28.8516" style="34" customWidth="1"/>
+    <col min="4" max="4" width="30.3516" style="34" customWidth="1"/>
+    <col min="5" max="8" width="16.3516" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.3" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7138,7 +7115,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -7150,7 +7127,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="13">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s" s="14">
         <v>15</v>
@@ -7164,7 +7141,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="13">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s" s="14">
         <v>15</v>
@@ -7178,7 +7155,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="13">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s" s="14">
         <v>15</v>
@@ -7192,7 +7169,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="13">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s" s="14">
         <v>15</v>
@@ -7206,7 +7183,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="13">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s" s="14">
         <v>15</v>
@@ -7220,7 +7197,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="13">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s" s="14">
         <v>15</v>
@@ -7234,7 +7211,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="13">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s" s="14">
         <v>15</v>
@@ -7248,7 +7225,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="13">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s" s="14">
         <v>15</v>
@@ -7262,7 +7239,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s" s="14">
         <v>15</v>
@@ -7276,7 +7253,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="13">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s" s="14">
         <v>15</v>
@@ -7290,7 +7267,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s" s="14">
         <v>15</v>
@@ -7304,7 +7281,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s" s="14">
         <v>15</v>
@@ -7318,7 +7295,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="13">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s" s="14">
         <v>15</v>
@@ -7332,7 +7309,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="13">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s" s="14">
         <v>15</v>
@@ -7346,14 +7323,14 @@
     </row>
     <row r="18" ht="44.05" customHeight="1">
       <c r="A18" t="s" s="13">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s" s="14">
         <v>15</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" t="s" s="15">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -7362,7 +7339,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="25">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -7374,7 +7351,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="13">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s" s="14">
         <v>15</v>
@@ -7388,7 +7365,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="13">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s" s="14">
         <v>15</v>
@@ -7402,7 +7379,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="13">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B22" t="s" s="14">
         <v>15</v>
@@ -7416,7 +7393,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="13">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B23" t="s" s="14">
         <v>15</v>
@@ -7430,7 +7407,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="13">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s" s="14">
         <v>15</v>
@@ -7444,7 +7421,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="13">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B25" t="s" s="14">
         <v>15</v>
@@ -7458,7 +7435,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="13">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s" s="14">
         <v>15</v>
@@ -7472,16 +7449,16 @@
     </row>
     <row r="27" ht="68.05" customHeight="1">
       <c r="A27" t="s" s="13">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s" s="14">
         <v>9</v>
       </c>
       <c r="C27" t="s" s="15">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D27" t="s" s="15">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -7490,7 +7467,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="13">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B28" t="s" s="14">
         <v>15</v>
@@ -7504,7 +7481,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="13">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B29" t="s" s="14">
         <v>15</v>
@@ -7518,7 +7495,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="13">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s" s="14">
         <v>15</v>
@@ -7532,7 +7509,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="13">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B31" t="s" s="14">
         <v>15</v>
@@ -7546,7 +7523,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="13">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B32" t="s" s="14">
         <v>15</v>
@@ -7560,7 +7537,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="13">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B33" t="s" s="14">
         <v>15</v>
@@ -7574,7 +7551,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="13">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B34" t="s" s="14">
         <v>15</v>
@@ -7588,7 +7565,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="13">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B35" t="s" s="14">
         <v>15</v>
@@ -7605,16 +7582,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal" stopIfTrue="1">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal" stopIfTrue="1">
       <formula>"Alternate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal" stopIfTrue="1">
       <formula>"Remediated"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/rhel9-cis-benchmarks_1-0-0.xlsx
+++ b/rhel9-cis-benchmarks_1-0-0.xlsx
@@ -997,7 +997,7 @@
     <t>5.2.4 Ensure SSH access is limited (Automated)</t>
   </si>
   <si>
-    <t>Inserted ‘AllowGroups sshusers’ into /etc/ssh/sshd_config. Created ‘sshusers’ group. User accounts requiring ssh access must be added to this group.</t>
+    <t>Updated /etc/ssh/sshd_config.d/00-complianceascode-hardening.conf. Created ‘sshusers’ group. User accounts requiring ssh access must be added to this group.</t>
   </si>
   <si>
     <t>5.2.5 Ensure SSH LogLevel is appropriate (Automated)</t>
@@ -1036,7 +1036,7 @@
     <t>5.2.15 Ensure SSH warning banner is configured (Automated)</t>
   </si>
   <si>
-    <t>Set ‘Banner /etc/issue’ in /etc/ssh/sshd_conf</t>
+    <t>Updated /etc/ssh/sshd_config.d/00-complianceascode-hardening.conf. Set ‘Banner /etc/issue’.</t>
   </si>
   <si>
     <t>5.2.16 Ensure SSH MaxAuthTries is set to 4 or less (Automated)</t>
@@ -1054,7 +1054,7 @@
     <t>5.2.20 Ensure SSH Idle Timeout Interval is configured (Automated)</t>
   </si>
   <si>
-    <t>Set ‘ClientAliveInterval 3540’ and ‘ClientAliveCountMax 0’ in /etc/ssh/sshd_config in accordance with organization 60 minute timeout policy.</t>
+    <t>Updated /etc/ssh/sshd_config.d/00-complianceascode-hardening.conf. Set ‘ClientAliveInterval 3540’ and ‘ClientAliveCountMax 0’ in accordance with organization 60 minute timeout policy.</t>
   </si>
   <si>
     <t>5.3 Configure privilege escalation</t>
@@ -1646,7 +1646,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="ff000000"/>
@@ -1688,50 +1688,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="15"/>
           <bgColor indexed="19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="15"/>
-          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5279,7 +5235,7 @@
   <cols>
     <col min="1" max="1" width="89.6719" style="32" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="32" customWidth="1"/>
-    <col min="3" max="3" width="45.7969" style="32" customWidth="1"/>
+    <col min="3" max="3" width="45.8516" style="32" customWidth="1"/>
     <col min="4" max="4" width="57.1719" style="32" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="32" customWidth="1"/>
     <col min="6" max="16384" width="16.3516" style="32" customWidth="1"/>
@@ -6113,7 +6069,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B21 B35:B67">
+  <conditionalFormatting sqref="B2:B68">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Pass"</formula>
     </cfRule>
@@ -6124,20 +6080,6 @@
       <formula>"Remediated"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="4" operator="equal" stopIfTrue="1">
-      <formula>"Alternate"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B34 B68">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal" stopIfTrue="1">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal" stopIfTrue="1">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal" stopIfTrue="1">
-      <formula>"Remediated"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal" stopIfTrue="1">
       <formula>"Alternate"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6556,7 +6498,7 @@
         <v>313</v>
       </c>
       <c r="B28" t="s" s="14">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" t="s" s="15">
@@ -7044,16 +6986,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B61">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal" stopIfTrue="1">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal" stopIfTrue="1">
       <formula>"Alternate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal" stopIfTrue="1">
       <formula>"Remediated"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7582,16 +7524,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal" stopIfTrue="1">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal" stopIfTrue="1">
       <formula>"Alternate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal" stopIfTrue="1">
       <formula>"Remediated"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/rhel9-cis-benchmarks_1-0-0.xlsx
+++ b/rhel9-cis-benchmarks_1-0-0.xlsx
@@ -2165,7 +2165,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2195,7 +2194,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2221,7 +2219,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2247,7 +2244,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2273,7 +2269,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2299,7 +2294,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2325,7 +2319,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2351,7 +2344,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2377,7 +2369,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2403,7 +2394,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2454,7 +2444,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2480,7 +2469,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2506,7 +2494,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2532,7 +2519,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2558,7 +2544,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2584,7 +2569,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2610,7 +2594,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2636,7 +2619,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2662,7 +2644,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2688,7 +2669,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2736,7 +2716,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2766,7 +2745,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2792,7 +2770,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2818,7 +2795,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2844,7 +2820,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2870,7 +2845,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2896,7 +2870,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2922,7 +2895,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2948,7 +2920,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2974,7 +2945,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
